--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F177A21-E22F-4E9C-9B78-37ACD0C5A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F302D8-58AE-448A-B42C-0092A5071359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="3630" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,28 +332,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,6 +363,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +729,7 @@
       <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -752,158 +755,158 @@
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>50000</v>
       </c>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-      <c r="I2" s="15">
+      <c r="D2" s="12">
+        <v>3.8503601000000001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3.8283586000000001</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3.9090929000000001</v>
+      </c>
+      <c r="G2" s="13">
+        <v>3.8392678</v>
+      </c>
+      <c r="H2" s="12">
+        <v>3.8453523000000001</v>
+      </c>
+      <c r="I2" s="13">
         <f>AVERAGE(D2:H2)</f>
-        <v>1</v>
+        <v>3.8544863399999998</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
+      <c r="B3" s="16"/>
+      <c r="C3" s="5">
         <v>100000</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <f t="shared" ref="I3:I37" si="0">AVERAGE(D3:H3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6">
+      <c r="B4" s="16"/>
+      <c r="C4" s="5">
         <v>175000</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D4" s="7">
+        <v>48.600735899999997</v>
+      </c>
+      <c r="E4" s="9">
+        <v>48.680616000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>50.594881899999997</v>
+      </c>
+      <c r="G4" s="9">
+        <v>49.578393699999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>49.766435100000002</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="0"/>
+        <v>49.444212519999994</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="B5" s="16"/>
+      <c r="C5" s="5">
         <v>300000</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
+      <c r="B6" s="16"/>
+      <c r="C6" s="5">
         <v>425000</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5">
         <v>550000</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -912,158 +915,158 @@
       <c r="A8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>50000</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+      <c r="B9" s="16"/>
+      <c r="C9" s="5">
         <v>100000</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="B10" s="16"/>
+      <c r="C10" s="5">
         <v>175000</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="B11" s="16"/>
+      <c r="C11" s="5">
         <v>300000</v>
       </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B12" s="16"/>
+      <c r="C12" s="5">
         <v>425000</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
+      <c r="B13" s="16"/>
+      <c r="C13" s="5">
         <v>550000</v>
       </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1072,158 +1075,158 @@
       <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>50000</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6">
+      <c r="B15" s="16"/>
+      <c r="C15" s="5">
         <v>100000</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+      <c r="B16" s="16"/>
+      <c r="C16" s="5">
         <v>175000</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5">
         <v>300000</v>
       </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+      <c r="B18" s="16"/>
+      <c r="C18" s="5">
         <v>425000</v>
       </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
+      <c r="B19" s="16"/>
+      <c r="C19" s="5">
         <v>550000</v>
       </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1232,158 +1235,158 @@
       <c r="A20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>50000</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10">
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6">
+      <c r="B21" s="16"/>
+      <c r="C21" s="5">
         <v>100000</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="18"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
+      <c r="B22" s="16"/>
+      <c r="C22" s="5">
         <v>175000</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
+      <c r="B23" s="16"/>
+      <c r="C23" s="5">
         <v>300000</v>
       </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
+      <c r="B24" s="16"/>
+      <c r="C24" s="5">
         <v>425000</v>
       </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="18"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6">
+      <c r="B25" s="16"/>
+      <c r="C25" s="5">
         <v>550000</v>
       </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1392,158 +1395,158 @@
       <c r="A26" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>50000</v>
       </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6">
+      <c r="B27" s="16"/>
+      <c r="C27" s="5">
         <v>100000</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6">
+      <c r="B28" s="16"/>
+      <c r="C28" s="5">
         <v>175000</v>
       </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10">
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="18"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6">
+      <c r="B29" s="16"/>
+      <c r="C29" s="5">
         <v>300000</v>
       </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6">
+      <c r="B30" s="16"/>
+      <c r="C30" s="5">
         <v>425000</v>
       </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6">
+      <c r="B31" s="16"/>
+      <c r="C31" s="5">
         <v>550000</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1552,169 +1555,164 @@
       <c r="A32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>50000</v>
       </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="18"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6">
+      <c r="B33" s="16"/>
+      <c r="C33" s="5">
         <v>100000</v>
       </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="10">
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="18"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6">
+      <c r="B34" s="16"/>
+      <c r="C34" s="5">
         <v>175000</v>
       </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10">
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6">
+      <c r="B35" s="16"/>
+      <c r="C35" s="5">
         <v>300000</v>
       </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6">
+      <c r="B36" s="16"/>
+      <c r="C36" s="5">
         <v>425000</v>
       </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10">
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="7">
+      <c r="B37" s="20"/>
+      <c r="C37" s="6">
         <v>550000</v>
       </c>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11">
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B31"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
@@ -1722,6 +1720,11 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1019806-C11C-41FD-B890-E66C66E00AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3987C7-8B08-43B7-A8EB-C71D7B73ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>Algorithm</t>
   </si>
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,25 +483,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,47 +515,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -612,7 +602,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
-              <a:t> Elapsed vs. Input Size for Various Common Sorting Algorithms</a:t>
+              <a:t> Elapsed vs. Input Size n for Various Common Sorting Algorithms Using Unsorted Data</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200" b="1"/>
           </a:p>
@@ -622,8 +612,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13247554284808685"/>
-          <c:y val="2.8070175438596492E-2"/>
+          <c:x val="0.18094639381957575"/>
+          <c:y val="1.4035087719298246E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -663,9 +653,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11479322374959017"/>
-          <c:y val="0.12343859649122807"/>
+          <c:y val="0.14799999999999999"/>
           <c:w val="0.81612917999751378"/>
-          <c:h val="0.74532172952065201"/>
+          <c:h val="0.72076032601188011"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -718,13 +708,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.9736778016951537E-2"/>
-                  <c:y val="0.17794502003039095"/>
+                  <c:x val="7.435304953804571E-2"/>
+                  <c:y val="0.12919298245614036"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:solidFill>
                     <a:schemeClr val="accent1"/>
@@ -862,12 +854,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.7428642256404436E-2"/>
-                  <c:y val="-0.2480754247824285"/>
+                  <c:x val="7.435304953804571E-2"/>
+                  <c:y val="-0.32792761431136896"/>
                 </c:manualLayout>
               </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:solidFill>
                     <a:schemeClr val="accent2"/>
@@ -1005,13 +1000,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.0411909544341287E-2"/>
-                  <c:y val="-0.23815609890868897"/>
+                  <c:x val="7.4260724107623827E-2"/>
+                  <c:y val="-0.33027572869180827"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:solidFill>
                     <a:schemeClr val="accent3"/>
@@ -1149,13 +1146,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0532993982853648E-2"/>
-                  <c:y val="-0.23372510015195469"/>
+                  <c:x val="7.5149265503947821E-2"/>
+                  <c:y val="-0.33898825804669153"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:solidFill>
                     <a:schemeClr val="accent4"/>
@@ -1293,13 +1292,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.5535970932755747E-2"/>
-                  <c:y val="-0.16705843348528801"/>
+                  <c:x val="7.4768513974944273E-2"/>
+                  <c:y val="-0.27232159138002493"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:solidFill>
                     <a:srgbClr val="7030A0"/>
@@ -1437,13 +1438,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11911488991101137"/>
-                  <c:y val="-0.11442685453791961"/>
+                  <c:x val="7.4768513974944273E-2"/>
+                  <c:y val="-0.20916369664318277"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg2"/>
+                </a:solidFill>
                 <a:ln>
                   <a:solidFill>
                     <a:schemeClr val="accent6"/>
@@ -1666,6 +1669,7 @@
         <c:axId val="1169517952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1797,14 +1801,38 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13654858462207276"/>
-          <c:y val="0.18408647603260123"/>
-          <c:w val="0.24025476003021295"/>
-          <c:h val="0.43947617074181516"/>
+          <c:x val="0.12731604157988441"/>
+          <c:y val="0.16654261638347839"/>
+          <c:w val="0.20332458786145952"/>
+          <c:h val="0.32368669705760467"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2480,7 +2508,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$9:$C$14</c15:sqref>
@@ -2513,7 +2541,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$9:$L$14</c15:sqref>
@@ -2545,7 +2573,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-86F0-40B3-A663-76A3C1366E99}"/>
                   </c:ext>
@@ -2600,7 +2628,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$15:$C$20</c15:sqref>
@@ -2633,7 +2661,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$15:$L$20</c15:sqref>
@@ -2665,7 +2693,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-86F0-40B3-A663-76A3C1366E99}"/>
                   </c:ext>
@@ -2934,8 +2962,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13193231310097861"/>
-          <c:y val="0.14548998480453101"/>
+          <c:x val="0.45276318381702418"/>
+          <c:y val="0.201630335681724"/>
           <c:w val="0.24025476003021295"/>
           <c:h val="0.43947617074181516"/>
         </c:manualLayout>
@@ -2944,6 +2972,992 @@
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time Elapsed vs. Input Size n for Various Common Sorting Algorithms Using Presorted Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18681063830751726"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11452889632319276"/>
+          <c:y val="0.12878472222222223"/>
+          <c:w val="0.81335962538361439"/>
+          <c:h val="0.73092601706036742"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bubble Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.92752985999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7816324800000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.52258582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.178462160000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.704380760000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116.41577226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D82-4AA8-8604-4DD932089D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Selection Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$9:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88176837999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5121737799999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.215094599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.676205999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.039244200000013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.81666572000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D82-4AA8-8604-4DD932089D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Insertion Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$15:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8480000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4724000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6708E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2304000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4141999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0061999999999993E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3D82-4AA8-8604-4DD932089D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Merge Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$21:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.2456680000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4936039999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6540840000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13504572000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19297686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25202259999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3D82-4AA8-8604-4DD932089D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Quick Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$27:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3D82-4AA8-8604-4DD932089D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Shell Sort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>550000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$33:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1025400000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2882999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0748200000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2292599999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0179200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.385656E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3D82-4AA8-8604-4DD932089D31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82277072"/>
+        <c:axId val="82274192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82277072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82274192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82274192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time Elapsed (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82277072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13994950113101146"/>
+          <c:y val="0.15076252187226599"/>
+          <c:w val="0.15308446547808466"/>
+          <c:h val="0.35156496062992126"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -3097,6 +4111,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3614,6 +4668,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4480,6 +6050,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492124</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>520699</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D53ECD0-0B73-4972-49BD-BEE38B77D56C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4751,8 +6357,8 @@
   </sheetPr>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="M3" activeCellId="1" sqref="T3 M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4763,31 +6369,31 @@
     <col min="4" max="4" width="8.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="46" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -4823,10 +6429,10 @@
       <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -4844,94 +6450,92 @@
       <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="21">
         <v>50000</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="22">
         <v>3.8503601000000001</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="23">
         <v>3.8283586000000001</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="22">
         <v>3.9090929000000001</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="23">
         <v>3.8392678</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="22">
         <v>3.8453523000000001</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="24">
         <f>AVERAGE(G3:K3)</f>
         <v>3.8544863399999998</v>
       </c>
-      <c r="M3" s="42">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="35">
+      <c r="M3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="23">
         <v>0.92794239999999995</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="22">
         <v>0.92337199999999997</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="23">
         <v>0.92662060000000002</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="22">
         <v>0.93493859999999995</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="23">
         <v>0.92477569999999998</v>
       </c>
-      <c r="S3" s="36">
+      <c r="S3" s="24">
         <f>AVERAGE(N3:R3)</f>
         <v>0.92752985999999993</v>
       </c>
-      <c r="T3" s="42">
-        <f>1</f>
-        <v>1</v>
+      <c r="T3" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="5">
         <v>100000</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="25">
         <f>C4/C3</f>
         <v>2</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="25">
         <f>D4^2</f>
         <v>4</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="25">
         <f>D4*LOG(D4,2)</f>
         <v>2</v>
       </c>
@@ -4950,11 +6554,11 @@
       <c r="K4" s="7">
         <v>16.324471800000001</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="17">
         <f t="shared" ref="L4:L38" si="0">AVERAGE(G4:K4)</f>
         <v>16.396082700000001</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="13">
         <f>L4/L3</f>
         <v>4.2537659375905328</v>
       </c>
@@ -4973,30 +6577,30 @@
       <c r="R4" s="13">
         <v>3.9356388999999998</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="17">
         <f t="shared" ref="S4:S38" si="1">AVERAGE(N4:R4)</f>
         <v>3.7816324800000003</v>
       </c>
-      <c r="T4" s="43">
+      <c r="T4" s="13">
         <f>S4/S3</f>
         <v>4.0771005259065198</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="5">
         <v>175000</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="25">
         <f>C5/C4</f>
         <v>1.75</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="25">
         <f t="shared" ref="E5:E14" si="2">D5^2</f>
         <v>3.0625</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="25">
         <f t="shared" ref="F5:F14" si="3">D5*LOG(D5,2)</f>
         <v>1.4128711136008072</v>
       </c>
@@ -5015,11 +6619,11 @@
       <c r="K5" s="7">
         <v>49.766435100000002</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="17">
         <f t="shared" si="0"/>
         <v>49.444212519999994</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="13">
         <f t="shared" ref="M5:M8" si="4">L5/L4</f>
         <v>3.0156113155003781</v>
       </c>
@@ -5038,30 +6642,30 @@
       <c r="R5" s="13">
         <v>11.718612800000001</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="17">
         <f t="shared" si="1"/>
         <v>11.52258582</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="13">
         <f t="shared" ref="T5:T8" si="5">S5/S4</f>
         <v>3.046987215426074</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="5">
         <v>300000</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="25">
         <f>C6/C5</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="25">
         <f t="shared" si="2"/>
         <v>2.9387755102040813</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="25">
         <f t="shared" si="3"/>
         <v>1.3330415634232318</v>
       </c>
@@ -5080,11 +6684,11 @@
       <c r="K6" s="7">
         <v>150.04175330000001</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="17">
         <f t="shared" si="0"/>
         <v>150.84097609999998</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="13">
         <f t="shared" si="4"/>
         <v>3.0507306803396936</v>
       </c>
@@ -5103,30 +6707,30 @@
       <c r="R6" s="13">
         <v>34.383432499999998</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="17">
         <f t="shared" si="1"/>
         <v>34.178462160000002</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="13">
         <f t="shared" si="5"/>
         <v>2.966214588801388</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="5">
         <v>425000</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="25">
         <f>C7/C6</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="25">
         <f t="shared" si="2"/>
         <v>2.0069444444444446</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="25">
         <f t="shared" si="3"/>
         <v>0.71187548241634313</v>
       </c>
@@ -5145,11 +6749,11 @@
       <c r="K7" s="7">
         <v>310.45732349999997</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="17">
         <f t="shared" si="0"/>
         <v>307.67407392000001</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="13">
         <f t="shared" si="4"/>
         <v>2.0397247609696425</v>
       </c>
@@ -5168,30 +6772,30 @@
       <c r="R7" s="13">
         <v>67.681019599999999</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="17">
         <f t="shared" si="1"/>
         <v>68.704380760000006</v>
       </c>
-      <c r="T7" s="43">
+      <c r="T7" s="13">
         <f t="shared" si="5"/>
         <v>2.0101659471503854</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="6">
         <v>550000</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="25">
         <f>C8/C7</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="25">
         <f t="shared" si="2"/>
         <v>1.6747404844290659</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="25">
         <f t="shared" si="3"/>
         <v>0.48137135897135735</v>
       </c>
@@ -5210,117 +6814,117 @@
       <c r="K8" s="8">
         <v>496.22755690000002</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="18">
         <f t="shared" si="0"/>
         <v>494.67564397999996</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="13">
         <f t="shared" si="4"/>
         <v>1.6077911202509161</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="20">
         <v>115.05571689999999</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="19">
         <v>114.62679730000001</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="20">
         <v>117.862792</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="19">
         <v>117.619013</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="20">
         <v>116.91454210000001</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="18">
         <f t="shared" si="1"/>
         <v>116.41577226</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="13">
         <f t="shared" si="5"/>
         <v>1.6944446769219377</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="21">
         <v>50000</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="22">
         <v>0.89061100000000004</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="23">
         <v>0.86194709999999997</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="22">
         <v>0.87638539999999998</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="23">
         <v>0.87871900000000003</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="22">
         <v>0.84598700000000004</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="24">
         <f t="shared" si="0"/>
         <v>0.87072990000000006</v>
       </c>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="23">
         <v>0.87028589999999995</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="22">
         <v>0.89422710000000005</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="23">
         <v>0.88075119999999996</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="22">
         <v>0.8716872</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="23">
         <v>0.89189050000000003</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="24">
         <f t="shared" si="1"/>
         <v>0.88176837999999991</v>
       </c>
-      <c r="T9" s="48" t="s">
+      <c r="T9" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="5">
         <v>100000</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="25">
         <f>C10/C9</f>
         <v>2</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="25">
         <f>D10^2</f>
         <v>4</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="25">
         <f>D10*LOG(D10,2)</f>
         <v>2</v>
       </c>
@@ -5339,11 +6943,11 @@
       <c r="K10" s="7">
         <v>3.4791482999999999</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="17">
         <f t="shared" si="0"/>
         <v>3.4654782999999996</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="13">
         <f>L10/L9</f>
         <v>3.9799693337738824</v>
       </c>
@@ -5362,30 +6966,30 @@
       <c r="R10" s="13">
         <v>3.5381456999999998</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="17">
         <f t="shared" si="1"/>
         <v>3.5121737799999999</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="13">
         <f>S10/S9</f>
         <v>3.9831024333170126</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="5">
         <v>175000</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="25">
         <f>C11/C10</f>
         <v>1.75</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="25">
         <f t="shared" si="2"/>
         <v>3.0625</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="25">
         <f t="shared" si="3"/>
         <v>1.4128711136008072</v>
       </c>
@@ -5404,11 +7008,11 @@
       <c r="K11" s="7">
         <v>11.2547915</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="17">
         <f t="shared" si="0"/>
         <v>10.908895239999998</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="13">
         <f t="shared" ref="M11:M14" si="6">L11/L10</f>
         <v>3.1478757896132259</v>
       </c>
@@ -5427,30 +7031,30 @@
       <c r="R11" s="13">
         <v>11.1866425</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11" s="17">
         <f t="shared" si="1"/>
         <v>11.215094599999999</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="13">
         <f t="shared" ref="T11:T14" si="7">S11/S10</f>
         <v>3.1932060605497714</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5">
         <v>300000</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="25">
         <f>C12/C11</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="25">
         <f t="shared" si="2"/>
         <v>2.9387755102040813</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="25">
         <f t="shared" si="3"/>
         <v>1.3330415634232318</v>
       </c>
@@ -5469,11 +7073,11 @@
       <c r="K12" s="7">
         <v>31.548230499999999</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="17">
         <f t="shared" si="0"/>
         <v>31.52791706</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="13">
         <f t="shared" si="6"/>
         <v>2.8901109018258393</v>
       </c>
@@ -5492,30 +7096,30 @@
       <c r="R12" s="13">
         <v>32.084002900000002</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="17">
         <f t="shared" si="1"/>
         <v>32.676205999999993</v>
       </c>
-      <c r="T12" s="43">
+      <c r="T12" s="13">
         <f t="shared" si="7"/>
         <v>2.9135916517369367</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="5">
         <v>425000</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="25">
         <f>C13/C12</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="25">
         <f t="shared" si="2"/>
         <v>2.0069444444444446</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="25">
         <f t="shared" si="3"/>
         <v>0.71187548241634313</v>
       </c>
@@ -5534,11 +7138,11 @@
       <c r="K13" s="7">
         <v>66.027098600000002</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="17">
         <f t="shared" si="0"/>
         <v>66.703100739999996</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="13">
         <f t="shared" si="6"/>
         <v>2.1156837165315734</v>
       </c>
@@ -5557,30 +7161,30 @@
       <c r="R13" s="13">
         <v>64.619699600000004</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13" s="17">
         <f t="shared" si="1"/>
         <v>66.039244200000013</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="13">
         <f t="shared" si="7"/>
         <v>2.0210193374347081</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="6">
         <v>550000</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="25">
         <f>C14/C13</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="25">
         <f t="shared" si="2"/>
         <v>1.6747404844290659</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="25">
         <f t="shared" si="3"/>
         <v>0.48137135897135735</v>
       </c>
@@ -5599,117 +7203,117 @@
       <c r="K14" s="8">
         <v>112.1012817</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="18">
         <f t="shared" si="0"/>
         <v>109.7235924</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="13">
         <f t="shared" si="6"/>
         <v>1.6449548998882118</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="20">
         <v>108.3689445</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="19">
         <v>112.7772246</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="20">
         <v>112.5805323</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="19">
         <v>111.0175593</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="20">
         <v>109.3390679</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="18">
         <f t="shared" si="1"/>
         <v>110.81666572000002</v>
       </c>
-      <c r="T14" s="43">
+      <c r="T14" s="13">
         <f t="shared" si="7"/>
         <v>1.6780426103059489</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="21">
         <v>50000</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="22">
         <v>0.56881490000000001</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="23">
         <v>0.55758560000000001</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="22">
         <v>0.55917830000000002</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="23">
         <v>0.55991429999999998</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="22">
         <v>0.56152619999999998</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="24">
         <f t="shared" si="0"/>
         <v>0.56140385999999998</v>
       </c>
-      <c r="M15" s="48" t="s">
+      <c r="M15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="13">
         <v>7.5699999999999997E-5</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="12">
         <v>1.8870000000000001E-4</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="13">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="12">
         <v>6.6299999999999999E-5</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="13">
         <v>8.6700000000000007E-5</v>
       </c>
-      <c r="S15" s="39">
+      <c r="S15" s="24">
         <f t="shared" si="1"/>
         <v>9.8480000000000006E-5</v>
       </c>
-      <c r="T15" s="48" t="s">
+      <c r="T15" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="5">
         <v>100000</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="25">
         <f>C16/C15</f>
         <v>2</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="25">
         <f>D16^2</f>
         <v>4</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="25">
         <f>D16*LOG(D16,2)</f>
         <v>2</v>
       </c>
@@ -5728,11 +7332,11 @@
       <c r="K16" s="7">
         <v>2.2273337</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="17">
         <f t="shared" si="0"/>
         <v>2.2138705399999998</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="13">
         <f>L16/L15</f>
         <v>3.9434544322513205</v>
       </c>
@@ -5751,30 +7355,30 @@
       <c r="R16" s="13">
         <v>1.6809999999999999E-4</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="17">
         <f t="shared" si="1"/>
         <v>1.4724000000000001E-4</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="13">
         <f>S16/S15</f>
         <v>1.4951259138911455</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="5">
         <v>175000</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="25">
         <f>C17/C16</f>
         <v>1.75</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="25">
         <f t="shared" ref="E17:E20" si="8">D17^2</f>
         <v>3.0625</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="25">
         <f t="shared" ref="F17:F20" si="9">D17*LOG(D17,2)</f>
         <v>1.4128711136008072</v>
       </c>
@@ -5793,11 +7397,11 @@
       <c r="K17" s="7">
         <v>6.8174266000000001</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="17">
         <f t="shared" si="0"/>
         <v>6.8691384599999994</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="13">
         <f t="shared" ref="M17:M20" si="10">L17/L16</f>
         <v>3.1027733265740101</v>
       </c>
@@ -5816,30 +7420,30 @@
       <c r="R17" s="13">
         <v>3.8690000000000003E-4</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17" s="17">
         <f t="shared" si="1"/>
         <v>2.6708E-4</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="13">
         <f t="shared" ref="T17:T20" si="11">S17/S16</f>
         <v>1.8139092637870142</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="19"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="5">
         <v>300000</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="25">
         <f>C18/C17</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="25">
         <f t="shared" si="8"/>
         <v>2.9387755102040813</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="25">
         <f t="shared" si="9"/>
         <v>1.3330415634232318</v>
       </c>
@@ -5858,11 +7462,11 @@
       <c r="K18" s="7">
         <v>20.136847299999999</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="17">
         <f t="shared" si="0"/>
         <v>20.141167800000002</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="13">
         <f t="shared" si="10"/>
         <v>2.9321243001993591</v>
       </c>
@@ -5881,30 +7485,30 @@
       <c r="R18" s="13">
         <v>4.2949999999999998E-4</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="17">
         <f t="shared" si="1"/>
         <v>5.2304000000000001E-4</v>
       </c>
-      <c r="T18" s="43">
+      <c r="T18" s="13">
         <f t="shared" si="11"/>
         <v>1.9583645349707952</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="5">
         <v>425000</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="25">
         <f>C19/C18</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="25">
         <f t="shared" si="8"/>
         <v>2.0069444444444446</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="25">
         <f t="shared" si="9"/>
         <v>0.71187548241634313</v>
       </c>
@@ -5923,11 +7527,11 @@
       <c r="K19" s="7">
         <v>40.243848900000003</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="17">
         <f t="shared" si="0"/>
         <v>40.321519960000003</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="13">
         <f t="shared" si="10"/>
         <v>2.0019454860010648</v>
       </c>
@@ -5946,30 +7550,30 @@
       <c r="R19" s="9">
         <v>6.0930000000000001E-4</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19" s="17">
         <f t="shared" si="1"/>
         <v>6.4141999999999997E-4</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="13">
         <f t="shared" si="11"/>
         <v>1.2263306821657998</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="6">
         <v>550000</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="25">
         <f>C20/C19</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="25">
         <f t="shared" si="8"/>
         <v>1.6747404844290659</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="25">
         <f t="shared" si="9"/>
         <v>0.48137135897135735</v>
       </c>
@@ -5988,11 +7592,11 @@
       <c r="K20" s="8">
         <v>66.894172999999995</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="18">
         <f t="shared" si="0"/>
         <v>66.27940498000001</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="13">
         <f t="shared" si="10"/>
         <v>1.6437724829260132</v>
       </c>
@@ -6011,94 +7615,94 @@
       <c r="R20" s="13">
         <v>7.6760000000000001E-4</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="18">
         <f t="shared" si="1"/>
         <v>8.0061999999999993E-4</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="13">
         <f t="shared" si="11"/>
         <v>1.2481993077858502</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="21">
         <v>50000</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="22">
         <v>3.3158E-2</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="23">
         <v>2.49926E-2</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="22">
         <v>2.7162499999999999E-2</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="23">
         <v>2.4784899999999999E-2</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="22">
         <v>2.65524E-2</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="24">
         <f t="shared" si="0"/>
         <v>2.733008E-2</v>
       </c>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="23">
         <v>3.5959900000000003E-2</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="22">
         <v>3.2436899999999998E-2</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21" s="23">
         <v>3.1760799999999999E-2</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="22">
         <v>3.2480099999999998E-2</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="23">
         <v>2.9645700000000001E-2</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="24">
         <f t="shared" si="1"/>
         <v>3.2456680000000002E-2</v>
       </c>
-      <c r="T21" s="48" t="s">
+      <c r="T21" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="5">
         <v>100000</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="25">
         <f>C22/C21</f>
         <v>2</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="25">
         <f>D22^2</f>
         <v>4</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="25">
         <f>D22*LOG(D22,2)</f>
         <v>2</v>
       </c>
@@ -6117,11 +7721,11 @@
       <c r="K22" s="7">
         <v>4.7475200000000002E-2</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="17">
         <f t="shared" si="0"/>
         <v>4.9603040000000001E-2</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="13">
         <f>L22/L21</f>
         <v>1.8149613905264823</v>
       </c>
@@ -6140,30 +7744,30 @@
       <c r="R22" s="13">
         <v>4.6229800000000001E-2</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="17">
         <f t="shared" si="1"/>
         <v>4.4936039999999997E-2</v>
       </c>
-      <c r="T22" s="43">
+      <c r="T22" s="13">
         <f>S22/S21</f>
         <v>1.3844928070277056</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="5">
         <v>175000</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="25">
         <f>C23/C22</f>
         <v>1.75</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="25">
         <f t="shared" ref="E23:E26" si="12">D23^2</f>
         <v>3.0625</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="25">
         <f t="shared" ref="F23:F26" si="13">D23*LOG(D23,2)</f>
         <v>1.4128711136008072</v>
       </c>
@@ -6182,11 +7786,11 @@
       <c r="K23" s="7">
         <v>8.7377999999999997E-2</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="17">
         <f t="shared" si="0"/>
         <v>8.4175180000000002E-2</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="13">
         <f t="shared" ref="M23:M26" si="14">L23/L22</f>
         <v>1.6969762337147078</v>
       </c>
@@ -6205,30 +7809,30 @@
       <c r="R23" s="13">
         <v>7.4467099999999994E-2</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="17">
         <f t="shared" si="1"/>
         <v>7.6540840000000013E-2</v>
       </c>
-      <c r="T23" s="43">
+      <c r="T23" s="13">
         <f t="shared" ref="T23:T26" si="15">S23/S22</f>
         <v>1.703328553205846</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="5">
         <v>300000</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="25">
         <f>C24/C23</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="25">
         <f t="shared" si="12"/>
         <v>2.9387755102040813</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="25">
         <f t="shared" si="13"/>
         <v>1.3330415634232318</v>
       </c>
@@ -6247,11 +7851,11 @@
       <c r="K24" s="7">
         <v>0.1515079</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="17">
         <f t="shared" si="0"/>
         <v>0.14635941999999999</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="13">
         <f t="shared" si="14"/>
         <v>1.738747930209356</v>
       </c>
@@ -6270,30 +7874,30 @@
       <c r="R24" s="13">
         <v>0.142403</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="17">
         <f t="shared" si="1"/>
         <v>0.13504572000000001</v>
       </c>
-      <c r="T24" s="43">
+      <c r="T24" s="13">
         <f t="shared" si="15"/>
         <v>1.7643616140089393</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="5">
         <v>425000</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="25">
         <f>C25/C24</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="25">
         <f t="shared" si="12"/>
         <v>2.0069444444444446</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="25">
         <f t="shared" si="13"/>
         <v>0.71187548241634313</v>
       </c>
@@ -6312,11 +7916,11 @@
       <c r="K25" s="7">
         <v>0.21886539999999999</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="17">
         <f t="shared" si="0"/>
         <v>0.2058516</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="13">
         <f t="shared" si="14"/>
         <v>1.4064800202132532</v>
       </c>
@@ -6335,30 +7939,30 @@
       <c r="R25" s="13">
         <v>0.1899264</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25" s="17">
         <f t="shared" si="1"/>
         <v>0.19297686</v>
       </c>
-      <c r="T25" s="43">
+      <c r="T25" s="13">
         <f t="shared" si="15"/>
         <v>1.4289742762673263</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="6">
         <v>550000</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="25">
         <f>C26/C25</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="25">
         <f t="shared" si="12"/>
         <v>1.6747404844290659</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="25">
         <f t="shared" si="13"/>
         <v>0.48137135897135735</v>
       </c>
@@ -6377,117 +7981,117 @@
       <c r="K26" s="8">
         <v>0.25543979999999999</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="18">
         <f t="shared" si="0"/>
         <v>0.26584922</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="13">
         <f t="shared" si="14"/>
         <v>1.291460547306895</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="20">
         <v>0.25739210000000001</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="19">
         <v>0.24481810000000001</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="20">
         <v>0.2571794</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="19">
         <v>0.24408089999999999</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="20">
         <v>0.2566425</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="18">
         <f t="shared" si="1"/>
         <v>0.25202259999999999</v>
       </c>
-      <c r="T26" s="43">
+      <c r="T26" s="13">
         <f t="shared" si="15"/>
         <v>1.3059731617562851</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="21">
         <v>50000</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="22">
         <v>3.7487000000000002E-3</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="23">
         <v>3.5155999999999998E-3</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="22">
         <v>3.5436999999999999E-3</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="23">
         <v>3.6386000000000001E-3</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="22">
         <v>3.6135E-3</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="24">
         <f t="shared" si="0"/>
         <v>3.6120199999999996E-3</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27" s="23">
         <v>1</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="22">
         <v>1</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="23">
         <v>1</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="22">
         <v>1</v>
       </c>
-      <c r="R27" s="35">
+      <c r="R27" s="23">
         <v>1</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T27" s="48" t="s">
+      <c r="T27" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="5">
         <v>100000</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="25">
         <f>C28/C27</f>
         <v>2</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="25">
         <f>D28^2</f>
         <v>4</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="25">
         <f>D28*LOG(D28,2)</f>
         <v>2</v>
       </c>
@@ -6506,11 +8110,11 @@
       <c r="K28" s="7">
         <v>7.6699999999999997E-3</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="17">
         <f t="shared" si="0"/>
         <v>8.0980200000000009E-3</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="13">
         <f>L28/L27</f>
         <v>2.2419643302085817</v>
       </c>
@@ -6529,30 +8133,30 @@
       <c r="R28" s="13">
         <v>1</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T28" s="43">
+      <c r="T28" s="13">
         <f>S28/S27</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="5">
         <v>175000</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="25">
         <f>C29/C28</f>
         <v>1.75</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="25">
         <f t="shared" ref="E29:E32" si="16">D29^2</f>
         <v>3.0625</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="25">
         <f t="shared" ref="F29:F32" si="17">D29*LOG(D29,2)</f>
         <v>1.4128711136008072</v>
       </c>
@@ -6571,11 +8175,11 @@
       <c r="K29" s="7">
         <v>1.3916400000000001E-2</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="17">
         <f t="shared" si="0"/>
         <v>1.402276E-2</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="13">
         <f t="shared" ref="M29:M32" si="18">L29/L28</f>
         <v>1.7316282251710911</v>
       </c>
@@ -6594,30 +8198,30 @@
       <c r="R29" s="13">
         <v>1</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T29" s="43">
+      <c r="T29" s="13">
         <f t="shared" ref="T29:T32" si="19">S29/S28</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="5">
         <v>300000</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="25">
         <f>C30/C29</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="25">
         <f t="shared" si="16"/>
         <v>2.9387755102040813</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="25">
         <f t="shared" si="17"/>
         <v>1.3330415634232318</v>
       </c>
@@ -6636,11 +8240,11 @@
       <c r="K30" s="7">
         <v>2.3363700000000001E-2</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="17">
         <f t="shared" si="0"/>
         <v>2.3612520000000001E-2</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="13">
         <f t="shared" si="18"/>
         <v>1.6838710781615032</v>
       </c>
@@ -6659,30 +8263,30 @@
       <c r="R30" s="13">
         <v>1</v>
       </c>
-      <c r="S30" s="27">
+      <c r="S30" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T30" s="43">
+      <c r="T30" s="13">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="5">
         <v>425000</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="25">
         <f>C31/C30</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="25">
         <f t="shared" si="16"/>
         <v>2.0069444444444446</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="25">
         <f t="shared" si="17"/>
         <v>0.71187548241634313</v>
       </c>
@@ -6701,11 +8305,11 @@
       <c r="K31" s="7">
         <v>3.5043499999999998E-2</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="17">
         <f t="shared" si="0"/>
         <v>3.4594400000000004E-2</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="13">
         <f t="shared" si="18"/>
         <v>1.4650871656223055</v>
       </c>
@@ -6724,30 +8328,30 @@
       <c r="R31" s="13">
         <v>1</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T31" s="43">
+      <c r="T31" s="13">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="6">
         <v>550000</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="25">
         <f>C32/C31</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="25">
         <f t="shared" si="16"/>
         <v>1.6747404844290659</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="25">
         <f t="shared" si="17"/>
         <v>0.48137135897135735</v>
       </c>
@@ -6766,55 +8370,55 @@
       <c r="K32" s="8">
         <v>4.6170299999999997E-2</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="18">
         <f t="shared" si="0"/>
         <v>4.668916E-2</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="13">
         <f t="shared" si="18"/>
         <v>1.3496161228406909</v>
       </c>
-      <c r="N32" s="30">
+      <c r="N32" s="20">
         <v>1</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="19">
         <v>1</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="20">
         <v>1</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="19">
         <v>1</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="20">
         <v>1</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T32" s="43">
+      <c r="T32" s="13">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="11">
         <v>50000</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="12">
@@ -6832,11 +8436,11 @@
       <c r="K33" s="12">
         <v>7.4174999999999996E-3</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="16">
         <f t="shared" si="0"/>
         <v>7.6139999999999984E-3</v>
       </c>
-      <c r="M33" s="48" t="s">
+      <c r="M33" s="27" t="s">
         <v>23</v>
       </c>
       <c r="N33" s="13">
@@ -6854,29 +8458,29 @@
       <c r="R33" s="13">
         <v>1.1039000000000001E-3</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="16">
         <f t="shared" si="1"/>
         <v>1.1025400000000002E-3</v>
       </c>
-      <c r="T33" s="48" t="s">
+      <c r="T33" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="5">
         <v>100000</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="25">
         <f>C34/C33</f>
         <v>2</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="25">
         <f>D34^2</f>
         <v>4</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="25">
         <f>D34*LOG(D34,2)</f>
         <v>2</v>
       </c>
@@ -6895,11 +8499,11 @@
       <c r="K34" s="7">
         <v>1.6517899999999999E-2</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="17">
         <f t="shared" si="0"/>
         <v>1.6236999999999998E-2</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="13">
         <f>L34/L33</f>
         <v>2.1325190438665618</v>
       </c>
@@ -6918,30 +8522,30 @@
       <c r="R34" s="13">
         <v>2.1654000000000001E-3</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34" s="17">
         <f t="shared" si="1"/>
         <v>2.2882999999999996E-3</v>
       </c>
-      <c r="T34" s="43">
+      <c r="T34" s="13">
         <f>S34/S33</f>
         <v>2.0754802546846367</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="5">
         <v>175000</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="25">
         <f>C35/C34</f>
         <v>1.75</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="25">
         <f t="shared" ref="E35:E38" si="20">D35^2</f>
         <v>3.0625</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="25">
         <f t="shared" ref="F35:F38" si="21">D35*LOG(D35,2)</f>
         <v>1.4128711136008072</v>
       </c>
@@ -6960,11 +8564,11 @@
       <c r="K35" s="7">
         <v>3.0270499999999999E-2</v>
       </c>
-      <c r="L35" s="27">
+      <c r="L35" s="17">
         <f t="shared" si="0"/>
         <v>2.9459000000000003E-2</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="13">
         <f t="shared" ref="M35:M38" si="22">L35/L34</f>
         <v>1.814312988852621</v>
       </c>
@@ -6983,30 +8587,30 @@
       <c r="R35" s="13">
         <v>4.1980999999999997E-3</v>
       </c>
-      <c r="S35" s="27">
+      <c r="S35" s="17">
         <f t="shared" si="1"/>
         <v>4.0748200000000007E-3</v>
       </c>
-      <c r="T35" s="43">
+      <c r="T35" s="13">
         <f t="shared" ref="T35:T38" si="23">S35/S34</f>
         <v>1.7807193112791162</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="5">
         <v>300000</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="25">
         <f>C36/C35</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="25">
         <f t="shared" si="20"/>
         <v>2.9387755102040813</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="25">
         <f t="shared" si="21"/>
         <v>1.3330415634232318</v>
       </c>
@@ -7025,11 +8629,11 @@
       <c r="K36" s="7">
         <v>5.72113E-2</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="17">
         <f t="shared" si="0"/>
         <v>5.6187880000000003E-2</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="13">
         <f t="shared" si="22"/>
         <v>1.9073247564411555</v>
       </c>
@@ -7048,30 +8652,30 @@
       <c r="R36" s="13">
         <v>7.2224000000000003E-3</v>
       </c>
-      <c r="S36" s="27">
+      <c r="S36" s="17">
         <f t="shared" si="1"/>
         <v>7.2292599999999995E-3</v>
       </c>
-      <c r="T36" s="43">
+      <c r="T36" s="13">
         <f t="shared" si="23"/>
         <v>1.7741299002164508</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="5">
         <v>425000</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="25">
         <f>C37/C36</f>
         <v>1.4166666666666667</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="25">
         <f t="shared" si="20"/>
         <v>2.0069444444444446</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="25">
         <f t="shared" si="21"/>
         <v>0.71187548241634313</v>
       </c>
@@ -7090,11 +8694,11 @@
       <c r="K37" s="7">
         <v>8.0296500000000007E-2</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="17">
         <f t="shared" si="0"/>
         <v>8.0770339999999996E-2</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="13">
         <f t="shared" si="22"/>
         <v>1.4375046718260236</v>
       </c>
@@ -7113,30 +8717,30 @@
       <c r="R37" s="13">
         <v>1.06573E-2</v>
       </c>
-      <c r="S37" s="27">
+      <c r="S37" s="17">
         <f t="shared" si="1"/>
         <v>1.0179200000000001E-2</v>
       </c>
-      <c r="T37" s="43">
+      <c r="T37" s="13">
         <f t="shared" si="23"/>
         <v>1.4080555962850971</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="6">
         <v>550000</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="26">
         <f>C38/C37</f>
         <v>1.2941176470588236</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="26">
         <f t="shared" si="20"/>
         <v>1.6747404844290659</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="26">
         <f t="shared" si="21"/>
         <v>0.48137135897135735</v>
       </c>
@@ -7155,34 +8759,34 @@
       <c r="K38" s="8">
         <v>0.1089287</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="18">
         <f t="shared" si="0"/>
         <v>0.10898352</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="10">
         <f t="shared" si="22"/>
         <v>1.3493012410248615</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="20">
         <v>1.39034E-2</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="19">
         <v>1.4744E-2</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="20">
         <v>1.3627800000000001E-2</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="19">
         <v>1.33814E-2</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="20">
         <v>1.36262E-2</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="18">
         <f t="shared" si="1"/>
         <v>1.385656E-2</v>
       </c>
-      <c r="T38" s="45">
+      <c r="T38" s="10">
         <f t="shared" si="23"/>
         <v>1.3612621817038666</v>
       </c>

--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3987C7-8B08-43B7-A8EB-C71D7B73ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF14C44-05D1-4EAF-8B6B-3335A75BD6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Algorithm</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Unsorted Input</t>
   </si>
   <si>
-    <t>Sorted Input</t>
-  </si>
-  <si>
     <t>Time Factor</t>
   </si>
   <si>
@@ -168,6 +165,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Ascending Sorted Input</t>
+  </si>
+  <si>
+    <t>Descending Sorted Input</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -446,12 +449,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +559,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5978,16 +5993,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>212724</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6014,16 +6029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>282576</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>365126</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6052,16 +6067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>492124</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>574674</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>520699</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6086,6 +6101,281 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3182A3FB-464C-40E6-A23C-90A8FC238B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="3251200"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB49DE8-B868-4B13-950A-EED6E898B0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="3251200"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8EE7A6-5A9D-404F-A328-CE69B2AE3F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11649075" y="3251200"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6A1E36-905D-431A-BA38-10E6C0B3EDC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353925" y="3251200"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C474E620-6F5F-467A-9A58-D105C76BFCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="3251200"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6355,10 +6645,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="M3" activeCellId="1" sqref="T3 M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6373,9 +6663,10 @@
     <col min="14" max="18" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G1" s="28" t="s">
         <v>17</v>
       </c>
@@ -6386,7 +6677,7 @@
       <c r="L1" s="29"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -6394,8 +6685,17 @@
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
+      <c r="U1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="30"/>
     </row>
-    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -6406,13 +6706,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
@@ -6433,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>1</v>
@@ -6454,10 +6754,31 @@
         <v>6</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>8</v>
       </c>
@@ -6468,13 +6789,13 @@
         <v>50000</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="22">
         <v>3.8503601000000001</v>
@@ -6496,7 +6817,7 @@
         <v>3.8544863399999998</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="23">
         <v>0.92794239999999995</v>
@@ -6518,10 +6839,32 @@
         <v>0.92752985999999993</v>
       </c>
       <c r="T3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U3" s="23">
+        <v>1</v>
+      </c>
+      <c r="V3" s="23">
+        <v>1</v>
+      </c>
+      <c r="W3" s="23">
+        <v>1</v>
+      </c>
+      <c r="X3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="24">
+        <f>AVERAGE(U3:Y3)</f>
+        <v>1</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="34"/>
       <c r="C4" s="5">
@@ -6585,8 +6928,31 @@
         <f>S4/S3</f>
         <v>4.0771005259065198</v>
       </c>
+      <c r="U4" s="13">
+        <v>1</v>
+      </c>
+      <c r="V4" s="13">
+        <v>1</v>
+      </c>
+      <c r="W4" s="13">
+        <v>1</v>
+      </c>
+      <c r="X4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="17">
+        <f t="shared" ref="Z4:Z38" si="2">AVERAGE(U4:Y4)</f>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="13">
+        <f>Z4/Z3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="34"/>
       <c r="C5" s="5">
@@ -6597,11 +6963,11 @@
         <v>1.75</v>
       </c>
       <c r="E5" s="25">
-        <f t="shared" ref="E5:E14" si="2">D5^2</f>
+        <f t="shared" ref="E5:E14" si="3">D5^2</f>
         <v>3.0625</v>
       </c>
       <c r="F5" s="25">
-        <f t="shared" ref="F5:F14" si="3">D5*LOG(D5,2)</f>
+        <f t="shared" ref="F5:F14" si="4">D5*LOG(D5,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G5" s="7">
@@ -6624,7 +6990,7 @@
         <v>49.444212519999994</v>
       </c>
       <c r="M5" s="13">
-        <f t="shared" ref="M5:M8" si="4">L5/L4</f>
+        <f t="shared" ref="M5:M8" si="5">L5/L4</f>
         <v>3.0156113155003781</v>
       </c>
       <c r="N5" s="13">
@@ -6647,11 +7013,34 @@
         <v>11.52258582</v>
       </c>
       <c r="T5" s="13">
-        <f t="shared" ref="T5:T8" si="5">S5/S4</f>
+        <f t="shared" ref="T5:T8" si="6">S5/S4</f>
         <v>3.046987215426074</v>
       </c>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>1</v>
+      </c>
+      <c r="W5" s="13">
+        <v>1</v>
+      </c>
+      <c r="X5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="13">
+        <f t="shared" ref="AA5:AA8" si="7">Z5/Z4</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="34"/>
       <c r="C6" s="5">
@@ -6662,11 +7051,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E6" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9387755102040813</v>
       </c>
       <c r="F6" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G6" s="7">
@@ -6689,7 +7078,7 @@
         <v>150.84097609999998</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0507306803396936</v>
       </c>
       <c r="N6" s="13">
@@ -6712,11 +7101,34 @@
         <v>34.178462160000002</v>
       </c>
       <c r="T6" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.966214588801388</v>
       </c>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13">
+        <v>1</v>
+      </c>
+      <c r="W6" s="13">
+        <v>1</v>
+      </c>
+      <c r="X6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="34"/>
       <c r="C7" s="5">
@@ -6727,11 +7139,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0069444444444446</v>
       </c>
       <c r="F7" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G7" s="7">
@@ -6754,7 +7166,7 @@
         <v>307.67407392000001</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0397247609696425</v>
       </c>
       <c r="N7" s="13">
@@ -6777,11 +7189,34 @@
         <v>68.704380760000006</v>
       </c>
       <c r="T7" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0101659471503854</v>
       </c>
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13">
+        <v>1</v>
+      </c>
+      <c r="X7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="38"/>
       <c r="B8" s="35"/>
       <c r="C8" s="6">
@@ -6792,11 +7227,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6747404844290659</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G8" s="8">
@@ -6819,7 +7254,7 @@
         <v>494.67564397999996</v>
       </c>
       <c r="M8" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6077911202509161</v>
       </c>
       <c r="N8" s="20">
@@ -6842,11 +7277,34 @@
         <v>116.41577226</v>
       </c>
       <c r="T8" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6944446769219377</v>
       </c>
+      <c r="U8" s="41">
+        <v>1</v>
+      </c>
+      <c r="V8" s="41">
+        <v>1</v>
+      </c>
+      <c r="W8" s="41">
+        <v>1</v>
+      </c>
+      <c r="X8" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="13">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>9</v>
       </c>
@@ -6857,13 +7315,13 @@
         <v>50000</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="22">
         <v>0.89061100000000004</v>
@@ -6885,7 +7343,7 @@
         <v>0.87072990000000006</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="23">
         <v>0.87028589999999995</v>
@@ -6907,10 +7365,32 @@
         <v>0.88176837999999991</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U9" s="23">
+        <v>1</v>
+      </c>
+      <c r="V9" s="23">
+        <v>1</v>
+      </c>
+      <c r="W9" s="23">
+        <v>1</v>
+      </c>
+      <c r="X9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="34"/>
       <c r="C10" s="5">
@@ -6974,8 +7454,31 @@
         <f>S10/S9</f>
         <v>3.9831024333170126</v>
       </c>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13">
+        <v>1</v>
+      </c>
+      <c r="W10" s="13">
+        <v>1</v>
+      </c>
+      <c r="X10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="13">
+        <f>Z10/Z9</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="34"/>
       <c r="C11" s="5">
@@ -6986,11 +7489,11 @@
         <v>1.75</v>
       </c>
       <c r="E11" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0625</v>
       </c>
       <c r="F11" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4128711136008072</v>
       </c>
       <c r="G11" s="7">
@@ -7013,7 +7516,7 @@
         <v>10.908895239999998</v>
       </c>
       <c r="M11" s="13">
-        <f t="shared" ref="M11:M14" si="6">L11/L10</f>
+        <f t="shared" ref="M11:M14" si="8">L11/L10</f>
         <v>3.1478757896132259</v>
       </c>
       <c r="N11" s="13">
@@ -7036,11 +7539,34 @@
         <v>11.215094599999999</v>
       </c>
       <c r="T11" s="13">
-        <f t="shared" ref="T11:T14" si="7">S11/S10</f>
+        <f t="shared" ref="T11:T14" si="9">S11/S10</f>
         <v>3.1932060605497714</v>
       </c>
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13">
+        <v>1</v>
+      </c>
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+      <c r="X11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" ref="AA11:AA14" si="10">Z11/Z10</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="34"/>
       <c r="C12" s="5">
@@ -7051,11 +7577,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9387755102040813</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G12" s="7">
@@ -7078,7 +7604,7 @@
         <v>31.52791706</v>
       </c>
       <c r="M12" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8901109018258393</v>
       </c>
       <c r="N12" s="13">
@@ -7101,11 +7627,34 @@
         <v>32.676205999999993</v>
       </c>
       <c r="T12" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9135916517369367</v>
       </c>
+      <c r="U12" s="13">
+        <v>1</v>
+      </c>
+      <c r="V12" s="13">
+        <v>1</v>
+      </c>
+      <c r="W12" s="13">
+        <v>1</v>
+      </c>
+      <c r="X12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="34"/>
       <c r="C13" s="5">
@@ -7116,11 +7665,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0069444444444446</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G13" s="7">
@@ -7143,7 +7692,7 @@
         <v>66.703100739999996</v>
       </c>
       <c r="M13" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1156837165315734</v>
       </c>
       <c r="N13" s="13">
@@ -7166,11 +7715,34 @@
         <v>66.039244200000013</v>
       </c>
       <c r="T13" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0210193374347081</v>
       </c>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13">
+        <v>1</v>
+      </c>
+      <c r="W13" s="13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="38"/>
       <c r="B14" s="35"/>
       <c r="C14" s="6">
@@ -7181,11 +7753,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E14" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6747404844290659</v>
       </c>
       <c r="F14" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G14" s="8">
@@ -7208,7 +7780,7 @@
         <v>109.7235924</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6449548998882118</v>
       </c>
       <c r="N14" s="20">
@@ -7231,11 +7803,34 @@
         <v>110.81666572000002</v>
       </c>
       <c r="T14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6780426103059489</v>
       </c>
+      <c r="U14" s="20">
+        <v>1</v>
+      </c>
+      <c r="V14" s="20">
+        <v>1</v>
+      </c>
+      <c r="W14" s="20">
+        <v>1</v>
+      </c>
+      <c r="X14" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
@@ -7246,13 +7841,13 @@
         <v>50000</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="22">
         <v>0.56881490000000001</v>
@@ -7274,7 +7869,7 @@
         <v>0.56140385999999998</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" s="13">
         <v>7.5699999999999997E-5</v>
@@ -7296,10 +7891,32 @@
         <v>9.8480000000000006E-5</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="13">
+        <v>1</v>
+      </c>
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+      <c r="X15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="37"/>
       <c r="B16" s="34"/>
       <c r="C16" s="5">
@@ -7363,8 +7980,31 @@
         <f>S16/S15</f>
         <v>1.4951259138911455</v>
       </c>
+      <c r="U16" s="13">
+        <v>1</v>
+      </c>
+      <c r="V16" s="13">
+        <v>1</v>
+      </c>
+      <c r="W16" s="13">
+        <v>1</v>
+      </c>
+      <c r="X16" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="13">
+        <f>Z16/Z15</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
       <c r="B17" s="34"/>
       <c r="C17" s="5">
@@ -7375,11 +8015,11 @@
         <v>1.75</v>
       </c>
       <c r="E17" s="25">
-        <f t="shared" ref="E17:E20" si="8">D17^2</f>
+        <f t="shared" ref="E17:E20" si="11">D17^2</f>
         <v>3.0625</v>
       </c>
       <c r="F17" s="25">
-        <f t="shared" ref="F17:F20" si="9">D17*LOG(D17,2)</f>
+        <f t="shared" ref="F17:F20" si="12">D17*LOG(D17,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G17" s="7">
@@ -7402,7 +8042,7 @@
         <v>6.8691384599999994</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ref="M17:M20" si="10">L17/L16</f>
+        <f t="shared" ref="M17:M20" si="13">L17/L16</f>
         <v>3.1027733265740101</v>
       </c>
       <c r="N17" s="13">
@@ -7425,11 +8065,34 @@
         <v>2.6708E-4</v>
       </c>
       <c r="T17" s="13">
-        <f t="shared" ref="T17:T20" si="11">S17/S16</f>
+        <f t="shared" ref="T17:T20" si="14">S17/S16</f>
         <v>1.8139092637870142</v>
       </c>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
+        <v>1</v>
+      </c>
+      <c r="X17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" ref="AA17:AA20" si="15">Z17/Z16</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="37"/>
       <c r="B18" s="34"/>
       <c r="C18" s="5">
@@ -7440,11 +8103,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9387755102040813</v>
       </c>
       <c r="F18" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G18" s="7">
@@ -7467,7 +8130,7 @@
         <v>20.141167800000002</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.9321243001993591</v>
       </c>
       <c r="N18" s="13">
@@ -7490,11 +8153,34 @@
         <v>5.2304000000000001E-4</v>
       </c>
       <c r="T18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.9583645349707952</v>
       </c>
+      <c r="U18" s="13">
+        <v>1</v>
+      </c>
+      <c r="V18" s="13">
+        <v>1</v>
+      </c>
+      <c r="W18" s="13">
+        <v>1</v>
+      </c>
+      <c r="X18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="37"/>
       <c r="B19" s="34"/>
       <c r="C19" s="5">
@@ -7505,11 +8191,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.0069444444444446</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G19" s="7">
@@ -7532,7 +8218,7 @@
         <v>40.321519960000003</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.0019454860010648</v>
       </c>
       <c r="N19" s="9">
@@ -7555,11 +8241,34 @@
         <v>6.4141999999999997E-4</v>
       </c>
       <c r="T19" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2263306821657998</v>
       </c>
+      <c r="U19" s="13">
+        <v>1</v>
+      </c>
+      <c r="V19" s="13">
+        <v>1</v>
+      </c>
+      <c r="W19" s="13">
+        <v>1</v>
+      </c>
+      <c r="X19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="38"/>
       <c r="B20" s="35"/>
       <c r="C20" s="6">
@@ -7570,11 +8279,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E20" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6747404844290659</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G20" s="8">
@@ -7597,7 +8306,7 @@
         <v>66.27940498000001</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6437724829260132</v>
       </c>
       <c r="N20" s="13">
@@ -7620,11 +8329,34 @@
         <v>8.0061999999999993E-4</v>
       </c>
       <c r="T20" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2481993077858502</v>
       </c>
+      <c r="U20" s="41">
+        <v>1</v>
+      </c>
+      <c r="V20" s="41">
+        <v>1</v>
+      </c>
+      <c r="W20" s="41">
+        <v>1</v>
+      </c>
+      <c r="X20" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="13">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>11</v>
       </c>
@@ -7635,13 +8367,13 @@
         <v>50000</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="22">
         <v>3.3158E-2</v>
@@ -7663,7 +8395,7 @@
         <v>2.733008E-2</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21" s="23">
         <v>3.5959900000000003E-2</v>
@@ -7685,10 +8417,32 @@
         <v>3.2456680000000002E-2</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U21" s="23">
+        <v>1</v>
+      </c>
+      <c r="V21" s="23">
+        <v>1</v>
+      </c>
+      <c r="W21" s="23">
+        <v>1</v>
+      </c>
+      <c r="X21" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="34"/>
       <c r="C22" s="5">
@@ -7752,8 +8506,31 @@
         <f>S22/S21</f>
         <v>1.3844928070277056</v>
       </c>
+      <c r="U22" s="13">
+        <v>1</v>
+      </c>
+      <c r="V22" s="13">
+        <v>1</v>
+      </c>
+      <c r="W22" s="13">
+        <v>1</v>
+      </c>
+      <c r="X22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="13">
+        <f>Z22/Z21</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="37"/>
       <c r="B23" s="34"/>
       <c r="C23" s="5">
@@ -7764,11 +8541,11 @@
         <v>1.75</v>
       </c>
       <c r="E23" s="25">
-        <f t="shared" ref="E23:E26" si="12">D23^2</f>
+        <f t="shared" ref="E23:E26" si="16">D23^2</f>
         <v>3.0625</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" ref="F23:F26" si="13">D23*LOG(D23,2)</f>
+        <f t="shared" ref="F23:F26" si="17">D23*LOG(D23,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G23" s="7">
@@ -7791,7 +8568,7 @@
         <v>8.4175180000000002E-2</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" ref="M23:M26" si="14">L23/L22</f>
+        <f t="shared" ref="M23:M26" si="18">L23/L22</f>
         <v>1.6969762337147078</v>
       </c>
       <c r="N23" s="13">
@@ -7814,11 +8591,34 @@
         <v>7.6540840000000013E-2</v>
       </c>
       <c r="T23" s="13">
-        <f t="shared" ref="T23:T26" si="15">S23/S22</f>
+        <f t="shared" ref="T23:T26" si="19">S23/S22</f>
         <v>1.703328553205846</v>
       </c>
+      <c r="U23" s="13">
+        <v>1</v>
+      </c>
+      <c r="V23" s="13">
+        <v>1</v>
+      </c>
+      <c r="W23" s="13">
+        <v>1</v>
+      </c>
+      <c r="X23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" ref="AA23:AA26" si="20">Z23/Z22</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="37"/>
       <c r="B24" s="34"/>
       <c r="C24" s="5">
@@ -7829,11 +8629,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.9387755102040813</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G24" s="7">
@@ -7856,7 +8656,7 @@
         <v>0.14635941999999999</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.738747930209356</v>
       </c>
       <c r="N24" s="13">
@@ -7879,11 +8679,34 @@
         <v>0.13504572000000001</v>
       </c>
       <c r="T24" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.7643616140089393</v>
       </c>
+      <c r="U24" s="13">
+        <v>1</v>
+      </c>
+      <c r="V24" s="13">
+        <v>1</v>
+      </c>
+      <c r="W24" s="13">
+        <v>1</v>
+      </c>
+      <c r="X24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="37"/>
       <c r="B25" s="34"/>
       <c r="C25" s="5">
@@ -7894,11 +8717,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.0069444444444446</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G25" s="7">
@@ -7921,7 +8744,7 @@
         <v>0.2058516</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.4064800202132532</v>
       </c>
       <c r="N25" s="13">
@@ -7944,11 +8767,34 @@
         <v>0.19297686</v>
       </c>
       <c r="T25" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.4289742762673263</v>
       </c>
+      <c r="U25" s="13">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13">
+        <v>1</v>
+      </c>
+      <c r="W25" s="13">
+        <v>1</v>
+      </c>
+      <c r="X25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="38"/>
       <c r="B26" s="35"/>
       <c r="C26" s="6">
@@ -7959,11 +8805,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1.6747404844290659</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G26" s="8">
@@ -7986,7 +8832,7 @@
         <v>0.26584922</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1.291460547306895</v>
       </c>
       <c r="N26" s="20">
@@ -8009,11 +8855,34 @@
         <v>0.25202259999999999</v>
       </c>
       <c r="T26" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1.3059731617562851</v>
       </c>
+      <c r="U26" s="20">
+        <v>1</v>
+      </c>
+      <c r="V26" s="20">
+        <v>1</v>
+      </c>
+      <c r="W26" s="20">
+        <v>1</v>
+      </c>
+      <c r="X26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>12</v>
       </c>
@@ -8024,13 +8893,13 @@
         <v>50000</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="22">
         <v>3.7487000000000002E-3</v>
@@ -8052,7 +8921,7 @@
         <v>3.6120199999999996E-3</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N27" s="23">
         <v>1</v>
@@ -8074,10 +8943,32 @@
         <v>1</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U27" s="23">
+        <v>1</v>
+      </c>
+      <c r="V27" s="23">
+        <v>1</v>
+      </c>
+      <c r="W27" s="23">
+        <v>1</v>
+      </c>
+      <c r="X27" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA27" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="37"/>
       <c r="B28" s="34"/>
       <c r="C28" s="5">
@@ -8141,8 +9032,31 @@
         <f>S28/S27</f>
         <v>1</v>
       </c>
+      <c r="U28" s="13">
+        <v>1</v>
+      </c>
+      <c r="V28" s="13">
+        <v>1</v>
+      </c>
+      <c r="W28" s="13">
+        <v>1</v>
+      </c>
+      <c r="X28" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA28" s="13">
+        <f>Z28/Z27</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="37"/>
       <c r="B29" s="34"/>
       <c r="C29" s="5">
@@ -8153,11 +9067,11 @@
         <v>1.75</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" ref="E29:E32" si="16">D29^2</f>
+        <f t="shared" ref="E29:E32" si="21">D29^2</f>
         <v>3.0625</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" ref="F29:F32" si="17">D29*LOG(D29,2)</f>
+        <f t="shared" ref="F29:F32" si="22">D29*LOG(D29,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G29" s="7">
@@ -8180,7 +9094,7 @@
         <v>1.402276E-2</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" ref="M29:M32" si="18">L29/L28</f>
+        <f t="shared" ref="M29:M32" si="23">L29/L28</f>
         <v>1.7316282251710911</v>
       </c>
       <c r="N29" s="13">
@@ -8203,11 +9117,34 @@
         <v>1</v>
       </c>
       <c r="T29" s="13">
-        <f t="shared" ref="T29:T32" si="19">S29/S28</f>
+        <f t="shared" ref="T29:T32" si="24">S29/S28</f>
+        <v>1</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1</v>
+      </c>
+      <c r="V29" s="13">
+        <v>1</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1</v>
+      </c>
+      <c r="X29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="13">
+        <f t="shared" ref="AA29:AA32" si="25">Z29/Z28</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
       <c r="B30" s="34"/>
       <c r="C30" s="5">
@@ -8218,11 +9155,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.9387755102040813</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G30" s="7">
@@ -8245,7 +9182,7 @@
         <v>2.3612520000000001E-2</v>
       </c>
       <c r="M30" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.6838710781615032</v>
       </c>
       <c r="N30" s="13">
@@ -8268,11 +9205,34 @@
         <v>1</v>
       </c>
       <c r="T30" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="13">
+        <v>1</v>
+      </c>
+      <c r="V30" s="13">
+        <v>1</v>
+      </c>
+      <c r="W30" s="13">
+        <v>1</v>
+      </c>
+      <c r="X30" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="13">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="37"/>
       <c r="B31" s="34"/>
       <c r="C31" s="5">
@@ -8283,11 +9243,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E31" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>2.0069444444444446</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G31" s="7">
@@ -8310,7 +9270,7 @@
         <v>3.4594400000000004E-2</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.4650871656223055</v>
       </c>
       <c r="N31" s="13">
@@ -8333,11 +9293,34 @@
         <v>1</v>
       </c>
       <c r="T31" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U31" s="13">
+        <v>1</v>
+      </c>
+      <c r="V31" s="13">
+        <v>1</v>
+      </c>
+      <c r="W31" s="13">
+        <v>1</v>
+      </c>
+      <c r="X31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA31" s="13">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="38"/>
       <c r="B32" s="35"/>
       <c r="C32" s="6">
@@ -8348,11 +9331,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1.6747404844290659</v>
       </c>
       <c r="F32" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G32" s="8">
@@ -8375,7 +9358,7 @@
         <v>4.668916E-2</v>
       </c>
       <c r="M32" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.3496161228406909</v>
       </c>
       <c r="N32" s="20">
@@ -8398,11 +9381,34 @@
         <v>1</v>
       </c>
       <c r="T32" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="U32" s="20">
+        <v>1</v>
+      </c>
+      <c r="V32" s="20">
+        <v>1</v>
+      </c>
+      <c r="W32" s="20">
+        <v>1</v>
+      </c>
+      <c r="X32" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="13">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="39" t="s">
         <v>13</v>
       </c>
@@ -8413,13 +9419,13 @@
         <v>50000</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G33" s="12">
         <v>8.8313000000000003E-3</v>
@@ -8441,7 +9447,7 @@
         <v>7.6139999999999984E-3</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N33" s="13">
         <v>1.1233E-3</v>
@@ -8463,10 +9469,32 @@
         <v>1.1025400000000002E-3</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="U33" s="23">
+        <v>1</v>
+      </c>
+      <c r="V33" s="23">
+        <v>1</v>
+      </c>
+      <c r="W33" s="23">
+        <v>1</v>
+      </c>
+      <c r="X33" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA33" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="34"/>
       <c r="C34" s="5">
@@ -8530,8 +9558,31 @@
         <f>S34/S33</f>
         <v>2.0754802546846367</v>
       </c>
+      <c r="U34" s="13">
+        <v>1</v>
+      </c>
+      <c r="V34" s="13">
+        <v>1</v>
+      </c>
+      <c r="W34" s="13">
+        <v>1</v>
+      </c>
+      <c r="X34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA34" s="13">
+        <f>Z34/Z33</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="34"/>
       <c r="C35" s="5">
@@ -8542,11 +9593,11 @@
         <v>1.75</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" ref="E35:E38" si="20">D35^2</f>
+        <f t="shared" ref="E35:E38" si="26">D35^2</f>
         <v>3.0625</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" ref="F35:F38" si="21">D35*LOG(D35,2)</f>
+        <f t="shared" ref="F35:F38" si="27">D35*LOG(D35,2)</f>
         <v>1.4128711136008072</v>
       </c>
       <c r="G35" s="7">
@@ -8569,7 +9620,7 @@
         <v>2.9459000000000003E-2</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" ref="M35:M38" si="22">L35/L34</f>
+        <f t="shared" ref="M35:M38" si="28">L35/L34</f>
         <v>1.814312988852621</v>
       </c>
       <c r="N35" s="13">
@@ -8592,11 +9643,34 @@
         <v>4.0748200000000007E-3</v>
       </c>
       <c r="T35" s="13">
-        <f t="shared" ref="T35:T38" si="23">S35/S34</f>
+        <f t="shared" ref="T35:T38" si="29">S35/S34</f>
         <v>1.7807193112791162</v>
       </c>
+      <c r="U35" s="13">
+        <v>1</v>
+      </c>
+      <c r="V35" s="13">
+        <v>1</v>
+      </c>
+      <c r="W35" s="13">
+        <v>1</v>
+      </c>
+      <c r="X35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="13">
+        <f t="shared" ref="AA35:AA38" si="30">Z35/Z34</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="34"/>
       <c r="C36" s="5">
@@ -8607,11 +9681,11 @@
         <v>1.7142857142857142</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.9387755102040813</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1.3330415634232318</v>
       </c>
       <c r="G36" s="7">
@@ -8634,7 +9708,7 @@
         <v>5.6187880000000003E-2</v>
       </c>
       <c r="M36" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.9073247564411555</v>
       </c>
       <c r="N36" s="13">
@@ -8657,11 +9731,34 @@
         <v>7.2292599999999995E-3</v>
       </c>
       <c r="T36" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.7741299002164508</v>
       </c>
+      <c r="U36" s="13">
+        <v>1</v>
+      </c>
+      <c r="V36" s="13">
+        <v>1</v>
+      </c>
+      <c r="W36" s="13">
+        <v>1</v>
+      </c>
+      <c r="X36" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="13">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="34"/>
       <c r="C37" s="5">
@@ -8672,11 +9769,11 @@
         <v>1.4166666666666667</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2.0069444444444446</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.71187548241634313</v>
       </c>
       <c r="G37" s="7">
@@ -8699,7 +9796,7 @@
         <v>8.0770339999999996E-2</v>
       </c>
       <c r="M37" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.4375046718260236</v>
       </c>
       <c r="N37" s="13">
@@ -8722,11 +9819,34 @@
         <v>1.0179200000000001E-2</v>
       </c>
       <c r="T37" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.4080555962850971</v>
       </c>
+      <c r="U37" s="13">
+        <v>1</v>
+      </c>
+      <c r="V37" s="13">
+        <v>1</v>
+      </c>
+      <c r="W37" s="13">
+        <v>1</v>
+      </c>
+      <c r="X37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="13">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="38"/>
       <c r="B38" s="35"/>
       <c r="C38" s="6">
@@ -8737,11 +9857,11 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="E38" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1.6747404844290659</v>
       </c>
       <c r="F38" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.48137135897135735</v>
       </c>
       <c r="G38" s="8">
@@ -8764,7 +9884,7 @@
         <v>0.10898352</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1.3493012410248615</v>
       </c>
       <c r="N38" s="20">
@@ -8787,12 +9907,36 @@
         <v>1.385656E-2</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1.3612621817038666</v>
+      </c>
+      <c r="U38" s="20">
+        <v>1</v>
+      </c>
+      <c r="V38" s="20">
+        <v>1</v>
+      </c>
+      <c r="W38" s="20">
+        <v>1</v>
+      </c>
+      <c r="X38" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="U1:AA1"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="B33:B38"/>

--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF14C44-05D1-4EAF-8B6B-3335A75BD6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DAABAD-E1CE-4ABD-87EF-76A877ECE522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,6 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,7 +560,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6647,8 +6647,8 @@
   </sheetPr>
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6667,33 +6667,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="28" t="s">
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="31"/>
     </row>
     <row r="2" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -6705,13 +6705,13 @@
       <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -6779,10 +6779,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="21">
@@ -6842,31 +6842,31 @@
         <v>22</v>
       </c>
       <c r="U3" s="23">
-        <v>1</v>
+        <v>2.1277601000000002</v>
       </c>
       <c r="V3" s="23">
-        <v>1</v>
+        <v>2.1578704000000002</v>
       </c>
       <c r="W3" s="23">
-        <v>1</v>
+        <v>2.1883205999999999</v>
       </c>
       <c r="X3" s="23">
-        <v>1</v>
+        <v>2.2097034999999998</v>
       </c>
       <c r="Y3" s="23">
-        <v>1</v>
+        <v>2.2142867000000002</v>
       </c>
       <c r="Z3" s="24">
         <f>AVERAGE(U3:Y3)</f>
-        <v>1</v>
+        <v>2.1795882600000001</v>
       </c>
       <c r="AA3" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="5">
         <v>100000</v>
       </c>
@@ -6929,32 +6929,32 @@
         <v>4.0771005259065198</v>
       </c>
       <c r="U4" s="13">
-        <v>1</v>
+        <v>8.5239635000000007</v>
       </c>
       <c r="V4" s="13">
-        <v>1</v>
+        <v>8.7298425000000002</v>
       </c>
       <c r="W4" s="13">
-        <v>1</v>
+        <v>8.7067104999999998</v>
       </c>
       <c r="X4" s="13">
-        <v>1</v>
+        <v>8.7705885000000006</v>
       </c>
       <c r="Y4" s="13">
-        <v>1</v>
+        <v>8.8558328999999993</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" ref="Z4:Z38" si="2">AVERAGE(U4:Y4)</f>
-        <v>1</v>
+        <v>8.7173875799999987</v>
       </c>
       <c r="AA4" s="13">
         <f>Z4/Z3</f>
-        <v>1</v>
+        <v>3.9995570447787228</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="5">
         <v>175000</v>
       </c>
@@ -7017,32 +7017,32 @@
         <v>3.046987215426074</v>
       </c>
       <c r="U5" s="13">
-        <v>1</v>
+        <v>26.128881199999999</v>
       </c>
       <c r="V5" s="13">
-        <v>1</v>
+        <v>26.100149999999999</v>
       </c>
       <c r="W5" s="13">
-        <v>1</v>
+        <v>26.571992900000001</v>
       </c>
       <c r="X5" s="13">
-        <v>1</v>
+        <v>26.698799399999999</v>
       </c>
       <c r="Y5" s="13">
-        <v>1</v>
+        <v>26.7329179</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>26.446548279999995</v>
       </c>
       <c r="AA5" s="13">
         <f t="shared" ref="AA5:AA8" si="7">Z5/Z4</f>
-        <v>1</v>
+        <v>3.0337699267467926</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="5">
         <v>300000</v>
       </c>
@@ -7105,32 +7105,32 @@
         <v>2.966214588801388</v>
       </c>
       <c r="U6" s="13">
-        <v>1</v>
+        <v>80.369632699999997</v>
       </c>
       <c r="V6" s="13">
-        <v>1</v>
+        <v>81.282623999999998</v>
       </c>
       <c r="W6" s="13">
-        <v>1</v>
+        <v>81.875777400000004</v>
       </c>
       <c r="X6" s="13">
-        <v>1</v>
+        <v>81.930251799999994</v>
       </c>
       <c r="Y6" s="13">
-        <v>1</v>
+        <v>80.685685699999993</v>
       </c>
       <c r="Z6" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>81.228794319999992</v>
       </c>
       <c r="AA6" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3.0714327427533772</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5">
         <v>425000</v>
       </c>
@@ -7193,32 +7193,32 @@
         <v>2.0101659471503854</v>
       </c>
       <c r="U7" s="13">
-        <v>1</v>
+        <v>164.48117250000001</v>
       </c>
       <c r="V7" s="13">
-        <v>1</v>
+        <v>156.06983550000001</v>
       </c>
       <c r="W7" s="13">
-        <v>1</v>
+        <v>156.6599014</v>
       </c>
       <c r="X7" s="13">
-        <v>1</v>
+        <v>159.75662489999999</v>
       </c>
       <c r="Y7" s="13">
-        <v>1</v>
+        <v>160.46309980000001</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>159.48612682000001</v>
       </c>
       <c r="AA7" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.963418614730462</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="6">
         <v>550000</v>
       </c>
@@ -7280,35 +7280,35 @@
         <f t="shared" si="6"/>
         <v>1.6944446769219377</v>
       </c>
-      <c r="U8" s="41">
-        <v>1</v>
-      </c>
-      <c r="V8" s="41">
-        <v>1</v>
-      </c>
-      <c r="W8" s="41">
-        <v>1</v>
-      </c>
-      <c r="X8" s="41">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="41">
-        <v>1</v>
+      <c r="U8" s="28">
+        <v>270.1389375</v>
+      </c>
+      <c r="V8" s="28">
+        <v>259.9608983</v>
+      </c>
+      <c r="W8" s="28">
+        <v>263.655912</v>
+      </c>
+      <c r="X8" s="28">
+        <v>259.37422320000002</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>260.890017</v>
       </c>
       <c r="Z8" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>262.80399759999995</v>
       </c>
       <c r="AA8" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>1.6478172919492053</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="21">
@@ -7368,31 +7368,31 @@
         <v>22</v>
       </c>
       <c r="U9" s="23">
-        <v>1</v>
+        <v>0.8898258</v>
       </c>
       <c r="V9" s="23">
-        <v>1</v>
+        <v>0.86695129999999998</v>
       </c>
       <c r="W9" s="23">
-        <v>1</v>
+        <v>0.90057010000000004</v>
       </c>
       <c r="X9" s="23">
-        <v>1</v>
+        <v>0.87598430000000005</v>
       </c>
       <c r="Y9" s="23">
-        <v>1</v>
+        <v>0.88712849999999999</v>
       </c>
       <c r="Z9" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.8840920000000001</v>
       </c>
       <c r="AA9" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5">
         <v>100000</v>
       </c>
@@ -7455,32 +7455,32 @@
         <v>3.9831024333170126</v>
       </c>
       <c r="U10" s="13">
-        <v>1</v>
+        <v>3.5842619</v>
       </c>
       <c r="V10" s="13">
-        <v>1</v>
+        <v>3.4624703999999999</v>
       </c>
       <c r="W10" s="13">
-        <v>1</v>
+        <v>3.4977830000000001</v>
       </c>
       <c r="X10" s="13">
-        <v>1</v>
+        <v>3.5559403000000001</v>
       </c>
       <c r="Y10" s="13">
-        <v>1</v>
+        <v>3.6623644</v>
       </c>
       <c r="Z10" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.5525640000000003</v>
       </c>
       <c r="AA10" s="13">
         <f>Z10/Z9</f>
-        <v>1</v>
+        <v>4.0183193604285528</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="5">
         <v>175000</v>
       </c>
@@ -7543,32 +7543,32 @@
         <v>3.1932060605497714</v>
       </c>
       <c r="U11" s="13">
-        <v>1</v>
+        <v>10.950929199999999</v>
       </c>
       <c r="V11" s="13">
-        <v>1</v>
+        <v>11.0006199</v>
       </c>
       <c r="W11" s="13">
-        <v>1</v>
+        <v>10.9295607</v>
       </c>
       <c r="X11" s="13">
-        <v>1</v>
+        <v>10.917384699999999</v>
       </c>
       <c r="Y11" s="13">
-        <v>1</v>
+        <v>10.881433400000001</v>
       </c>
       <c r="Z11" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10.935985580000001</v>
       </c>
       <c r="AA11" s="13">
         <f t="shared" ref="AA11:AA14" si="10">Z11/Z10</f>
-        <v>1</v>
+        <v>3.0783359793095917</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5">
         <v>300000</v>
       </c>
@@ -7631,32 +7631,32 @@
         <v>2.9135916517369367</v>
       </c>
       <c r="U12" s="13">
-        <v>1</v>
+        <v>32.401791500000002</v>
       </c>
       <c r="V12" s="13">
-        <v>1</v>
+        <v>31.927645399999999</v>
       </c>
       <c r="W12" s="13">
-        <v>1</v>
+        <v>32.691670600000002</v>
       </c>
       <c r="X12" s="13">
-        <v>1</v>
+        <v>32.610088500000003</v>
       </c>
       <c r="Y12" s="13">
-        <v>1</v>
+        <v>32.730861500000003</v>
       </c>
       <c r="Z12" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>32.4724115</v>
       </c>
       <c r="AA12" s="13">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2.96931732969604</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="5">
         <v>425000</v>
       </c>
@@ -7719,32 +7719,32 @@
         <v>2.0210193374347081</v>
       </c>
       <c r="U13" s="13">
-        <v>1</v>
+        <v>64.892133400000006</v>
       </c>
       <c r="V13" s="13">
-        <v>1</v>
+        <v>63.723070499999999</v>
       </c>
       <c r="W13" s="13">
-        <v>1</v>
+        <v>63.819937600000003</v>
       </c>
       <c r="X13" s="13">
-        <v>1</v>
+        <v>64.925417100000004</v>
       </c>
       <c r="Y13" s="13">
-        <v>1</v>
+        <v>64.699296700000005</v>
       </c>
       <c r="Z13" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>64.411971059999999</v>
       </c>
       <c r="AA13" s="13">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>1.9835906261535272</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="6">
         <v>550000</v>
       </c>
@@ -7807,34 +7807,34 @@
         <v>1.6780426103059489</v>
       </c>
       <c r="U14" s="20">
-        <v>1</v>
+        <v>110.4811869</v>
       </c>
       <c r="V14" s="20">
-        <v>1</v>
+        <v>109.1348787</v>
       </c>
       <c r="W14" s="20">
-        <v>1</v>
+        <v>107.7225772</v>
       </c>
       <c r="X14" s="20">
-        <v>1</v>
+        <v>113.56047649999999</v>
       </c>
       <c r="Y14" s="20">
-        <v>1</v>
+        <v>113.26993659999999</v>
       </c>
       <c r="Z14" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>110.83381118</v>
       </c>
       <c r="AA14" s="13">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>1.7207020582673658</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="21">
@@ -7894,31 +7894,31 @@
         <v>22</v>
       </c>
       <c r="U15" s="13">
-        <v>1</v>
+        <v>1.0876026000000001</v>
       </c>
       <c r="V15" s="13">
-        <v>1</v>
+        <v>1.1079417</v>
       </c>
       <c r="W15" s="13">
-        <v>1</v>
+        <v>1.1222122999999999</v>
       </c>
       <c r="X15" s="13">
-        <v>1</v>
+        <v>1.1188175</v>
       </c>
       <c r="Y15" s="13">
-        <v>1</v>
+        <v>1.1501872</v>
       </c>
       <c r="Z15" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.1173522599999999</v>
       </c>
       <c r="AA15" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5">
         <v>100000</v>
       </c>
@@ -7981,32 +7981,32 @@
         <v>1.4951259138911455</v>
       </c>
       <c r="U16" s="13">
-        <v>1</v>
+        <v>4.2625006000000001</v>
       </c>
       <c r="V16" s="13">
-        <v>1</v>
+        <v>4.2710279</v>
       </c>
       <c r="W16" s="13">
-        <v>1</v>
+        <v>4.2785130999999996</v>
       </c>
       <c r="X16" s="13">
-        <v>1</v>
+        <v>4.414866</v>
       </c>
       <c r="Y16" s="13">
-        <v>1</v>
+        <v>4.4334512999999998</v>
       </c>
       <c r="Z16" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.3320717799999997</v>
       </c>
       <c r="AA16" s="13">
         <f>Z16/Z15</f>
-        <v>1</v>
+        <v>3.8770868732122135</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="5">
         <v>175000</v>
       </c>
@@ -8069,32 +8069,32 @@
         <v>1.8139092637870142</v>
       </c>
       <c r="U17" s="13">
-        <v>1</v>
+        <v>13.047761400000001</v>
       </c>
       <c r="V17" s="13">
-        <v>1</v>
+        <v>13.382273700000001</v>
       </c>
       <c r="W17" s="13">
-        <v>1</v>
+        <v>13.371559899999999</v>
       </c>
       <c r="X17" s="13">
-        <v>1</v>
+        <v>13.411699499999999</v>
       </c>
       <c r="Y17" s="13">
-        <v>1</v>
+        <v>13.5598308</v>
       </c>
       <c r="Z17" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13.35462506</v>
       </c>
       <c r="AA17" s="13">
         <f t="shared" ref="AA17:AA20" si="15">Z17/Z16</f>
-        <v>1</v>
+        <v>3.0827340215493848</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="34"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5">
         <v>300000</v>
       </c>
@@ -8157,32 +8157,32 @@
         <v>1.9583645349707952</v>
       </c>
       <c r="U18" s="13">
-        <v>1</v>
+        <v>40.860741099999998</v>
       </c>
       <c r="V18" s="13">
-        <v>1</v>
+        <v>41.030571199999997</v>
       </c>
       <c r="W18" s="13">
-        <v>1</v>
+        <v>41.041561199999997</v>
       </c>
       <c r="X18" s="13">
-        <v>1</v>
+        <v>41.311354899999998</v>
       </c>
       <c r="Y18" s="13">
-        <v>1</v>
+        <v>41.462623999999998</v>
       </c>
       <c r="Z18" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>41.141370479999999</v>
       </c>
       <c r="AA18" s="13">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3.0806833059826841</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19" s="37"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="5">
         <v>425000</v>
       </c>
@@ -8245,32 +8245,32 @@
         <v>1.2263306821657998</v>
       </c>
       <c r="U19" s="13">
-        <v>1</v>
+        <v>81.621755300000004</v>
       </c>
       <c r="V19" s="13">
-        <v>1</v>
+        <v>83.471276399999994</v>
       </c>
       <c r="W19" s="13">
-        <v>1</v>
+        <v>82.813548100000006</v>
       </c>
       <c r="X19" s="13">
-        <v>1</v>
+        <v>82.310394000000002</v>
       </c>
       <c r="Y19" s="13">
-        <v>1</v>
+        <v>81.754149699999999</v>
       </c>
       <c r="Z19" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>82.394224699999995</v>
       </c>
       <c r="AA19" s="13">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2.0027097721514697</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="38"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="6">
         <v>550000</v>
       </c>
@@ -8332,35 +8332,35 @@
         <f t="shared" si="14"/>
         <v>1.2481993077858502</v>
       </c>
-      <c r="U20" s="41">
-        <v>1</v>
-      </c>
-      <c r="V20" s="41">
-        <v>1</v>
-      </c>
-      <c r="W20" s="41">
-        <v>1</v>
-      </c>
-      <c r="X20" s="41">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="41">
-        <v>1</v>
+      <c r="U20" s="28">
+        <v>141.31139619999999</v>
+      </c>
+      <c r="V20" s="28">
+        <v>139.90312180000001</v>
+      </c>
+      <c r="W20" s="28">
+        <v>132.35164900000001</v>
+      </c>
+      <c r="X20" s="28">
+        <v>133.54685269999999</v>
+      </c>
+      <c r="Y20" s="28">
+        <v>132.62209770000001</v>
       </c>
       <c r="Z20" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>135.94702348000001</v>
       </c>
       <c r="AA20" s="13">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>1.6499581612059275</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="21">
@@ -8420,31 +8420,31 @@
         <v>22</v>
       </c>
       <c r="U21" s="23">
-        <v>1</v>
+        <v>2.7335600000000002E-2</v>
       </c>
       <c r="V21" s="23">
-        <v>1</v>
+        <v>1.83158E-2</v>
       </c>
       <c r="W21" s="23">
-        <v>1</v>
+        <v>2.06678E-2</v>
       </c>
       <c r="X21" s="23">
-        <v>1</v>
+        <v>1.8178400000000001E-2</v>
       </c>
       <c r="Y21" s="23">
-        <v>1</v>
+        <v>2.05493E-2</v>
       </c>
       <c r="Z21" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.1009380000000001E-2</v>
       </c>
       <c r="AA21" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22" s="37"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5">
         <v>100000</v>
       </c>
@@ -8507,32 +8507,32 @@
         <v>1.3844928070277056</v>
       </c>
       <c r="U22" s="13">
-        <v>1</v>
+        <v>3.6842899999999998E-2</v>
       </c>
       <c r="V22" s="13">
-        <v>1</v>
+        <v>4.2576900000000001E-2</v>
       </c>
       <c r="W22" s="13">
-        <v>1</v>
+        <v>3.6690800000000003E-2</v>
       </c>
       <c r="X22" s="13">
-        <v>1</v>
+        <v>4.1958599999999999E-2</v>
       </c>
       <c r="Y22" s="13">
-        <v>1</v>
+        <v>3.7886200000000002E-2</v>
       </c>
       <c r="Z22" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.9191080000000003E-2</v>
       </c>
       <c r="AA22" s="13">
         <f>Z22/Z21</f>
-        <v>1</v>
+        <v>1.8654086888808714</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A23" s="37"/>
-      <c r="B23" s="34"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="5">
         <v>175000</v>
       </c>
@@ -8595,32 +8595,32 @@
         <v>1.703328553205846</v>
       </c>
       <c r="U23" s="13">
-        <v>1</v>
+        <v>6.6186400000000006E-2</v>
       </c>
       <c r="V23" s="13">
-        <v>1</v>
+        <v>7.2501599999999999E-2</v>
       </c>
       <c r="W23" s="13">
-        <v>1</v>
+        <v>6.4273800000000006E-2</v>
       </c>
       <c r="X23" s="13">
-        <v>1</v>
+        <v>7.2145799999999996E-2</v>
       </c>
       <c r="Y23" s="13">
-        <v>1</v>
+        <v>6.6806599999999994E-2</v>
       </c>
       <c r="Z23" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.838284E-2</v>
       </c>
       <c r="AA23" s="13">
         <f t="shared" ref="AA23:AA26" si="20">Z23/Z22</f>
-        <v>1</v>
+        <v>1.7448572481289109</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="5">
         <v>300000</v>
       </c>
@@ -8683,32 +8683,32 @@
         <v>1.7643616140089393</v>
       </c>
       <c r="U24" s="13">
-        <v>1</v>
+        <v>0.12178</v>
       </c>
       <c r="V24" s="13">
-        <v>1</v>
+        <v>0.110601</v>
       </c>
       <c r="W24" s="13">
-        <v>1</v>
+        <v>0.12419289999999999</v>
       </c>
       <c r="X24" s="13">
-        <v>1</v>
+        <v>0.1101193</v>
       </c>
       <c r="Y24" s="13">
-        <v>1</v>
+        <v>0.1250452</v>
       </c>
       <c r="Z24" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.11834768</v>
       </c>
       <c r="AA24" s="13">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>1.7306634237478291</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="34"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="5">
         <v>425000</v>
       </c>
@@ -8771,32 +8771,32 @@
         <v>1.4289742762673263</v>
       </c>
       <c r="U25" s="13">
-        <v>1</v>
+        <v>0.15834970000000001</v>
       </c>
       <c r="V25" s="13">
-        <v>1</v>
+        <v>0.1731722</v>
       </c>
       <c r="W25" s="13">
-        <v>1</v>
+        <v>0.1545792</v>
       </c>
       <c r="X25" s="13">
-        <v>1</v>
+        <v>0.17828830000000001</v>
       </c>
       <c r="Y25" s="13">
-        <v>1</v>
+        <v>0.15979070000000001</v>
       </c>
       <c r="Z25" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.16483602000000003</v>
       </c>
       <c r="AA25" s="13">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>1.392811587012099</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="35"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="6">
         <v>550000</v>
       </c>
@@ -8859,34 +8859,34 @@
         <v>1.3059731617562851</v>
       </c>
       <c r="U26" s="20">
-        <v>1</v>
+        <v>0.2284928</v>
       </c>
       <c r="V26" s="20">
-        <v>1</v>
+        <v>0.20143269999999999</v>
       </c>
       <c r="W26" s="20">
-        <v>1</v>
+        <v>0.2281531</v>
       </c>
       <c r="X26" s="20">
-        <v>1</v>
+        <v>0.20309740000000001</v>
       </c>
       <c r="Y26" s="20">
-        <v>1</v>
+        <v>0.2260112</v>
       </c>
       <c r="Z26" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.21743744000000001</v>
       </c>
       <c r="AA26" s="13">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>1.3191136257718428</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="21">
@@ -8969,8 +8969,8 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="5">
         <v>100000</v>
       </c>
@@ -9057,8 +9057,8 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A29" s="37"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="5">
         <v>175000</v>
       </c>
@@ -9145,8 +9145,8 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="B30" s="34"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="5">
         <v>300000</v>
       </c>
@@ -9233,8 +9233,8 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A31" s="37"/>
-      <c r="B31" s="34"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="5">
         <v>425000</v>
       </c>
@@ -9321,8 +9321,8 @@
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="6">
         <v>550000</v>
       </c>
@@ -9409,10 +9409,10 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="11">
@@ -9472,31 +9472,31 @@
         <v>22</v>
       </c>
       <c r="U33" s="23">
-        <v>1</v>
+        <v>2.0267000000000002E-3</v>
       </c>
       <c r="V33" s="23">
-        <v>1</v>
+        <v>1.5097000000000001E-3</v>
       </c>
       <c r="W33" s="23">
-        <v>1</v>
+        <v>1.4984E-3</v>
       </c>
       <c r="X33" s="23">
-        <v>1</v>
+        <v>2.1448000000000001E-3</v>
       </c>
       <c r="Y33" s="23">
-        <v>1</v>
+        <v>1.7941000000000001E-3</v>
       </c>
       <c r="Z33" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.7947400000000002E-3</v>
       </c>
       <c r="AA33" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5">
         <v>100000</v>
       </c>
@@ -9559,32 +9559,32 @@
         <v>2.0754802546846367</v>
       </c>
       <c r="U34" s="13">
-        <v>1</v>
+        <v>3.2815000000000001E-3</v>
       </c>
       <c r="V34" s="13">
-        <v>1</v>
+        <v>3.2460000000000002E-3</v>
       </c>
       <c r="W34" s="13">
-        <v>1</v>
+        <v>3.2948000000000001E-3</v>
       </c>
       <c r="X34" s="13">
-        <v>1</v>
+        <v>3.0866000000000001E-3</v>
       </c>
       <c r="Y34" s="13">
-        <v>1</v>
+        <v>3.4102E-3</v>
       </c>
       <c r="Z34" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.2638199999999997E-3</v>
       </c>
       <c r="AA34" s="13">
         <f>Z34/Z33</f>
-        <v>1</v>
+        <v>1.8185475333474483</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A35" s="37"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="5">
         <v>175000</v>
       </c>
@@ -9647,32 +9647,32 @@
         <v>1.7807193112791162</v>
       </c>
       <c r="U35" s="13">
-        <v>1</v>
+        <v>7.4361000000000002E-3</v>
       </c>
       <c r="V35" s="13">
-        <v>1</v>
+        <v>5.5846000000000003E-3</v>
       </c>
       <c r="W35" s="13">
-        <v>1</v>
+        <v>5.6917000000000001E-3</v>
       </c>
       <c r="X35" s="13">
-        <v>1</v>
+        <v>5.9611999999999998E-3</v>
       </c>
       <c r="Y35" s="13">
-        <v>1</v>
+        <v>6.6128000000000003E-3</v>
       </c>
       <c r="Z35" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.2572799999999996E-3</v>
       </c>
       <c r="AA35" s="13">
         <f t="shared" ref="AA35:AA38" si="30">Z35/Z34</f>
-        <v>1</v>
+        <v>1.9171645495155982</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A36" s="37"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="5">
         <v>300000</v>
       </c>
@@ -9735,32 +9735,32 @@
         <v>1.7741299002164508</v>
       </c>
       <c r="U36" s="13">
-        <v>1</v>
+        <v>1.0884400000000001E-2</v>
       </c>
       <c r="V36" s="13">
-        <v>1</v>
+        <v>1.0806899999999999E-2</v>
       </c>
       <c r="W36" s="13">
-        <v>1</v>
+        <v>1.0020899999999999E-2</v>
       </c>
       <c r="X36" s="13">
-        <v>1</v>
+        <v>1.1213900000000001E-2</v>
       </c>
       <c r="Y36" s="13">
-        <v>1</v>
+        <v>1.09687E-2</v>
       </c>
       <c r="Z36" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0778959999999999E-2</v>
       </c>
       <c r="AA36" s="13">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>1.7226270839725886</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A37" s="37"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="5">
         <v>425000</v>
       </c>
@@ -9823,32 +9823,32 @@
         <v>1.4080555962850971</v>
       </c>
       <c r="U37" s="13">
-        <v>1</v>
+        <v>1.5783700000000001E-2</v>
       </c>
       <c r="V37" s="13">
-        <v>1</v>
+        <v>1.52129E-2</v>
       </c>
       <c r="W37" s="13">
-        <v>1</v>
+        <v>1.4568599999999999E-2</v>
       </c>
       <c r="X37" s="13">
-        <v>1</v>
+        <v>1.50096E-2</v>
       </c>
       <c r="Y37" s="13">
-        <v>1</v>
+        <v>1.5428799999999999E-2</v>
       </c>
       <c r="Z37" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5200720000000001E-2</v>
       </c>
       <c r="AA37" s="13">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>1.4102213942718038</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="38"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="6">
         <v>550000</v>
       </c>
@@ -9911,27 +9911,27 @@
         <v>1.3612621817038666</v>
       </c>
       <c r="U38" s="20">
-        <v>1</v>
+        <v>2.00632E-2</v>
       </c>
       <c r="V38" s="20">
-        <v>1</v>
+        <v>2.0836E-2</v>
       </c>
       <c r="W38" s="20">
-        <v>1</v>
+        <v>2.04212E-2</v>
       </c>
       <c r="X38" s="20">
-        <v>1</v>
+        <v>2.06912E-2</v>
       </c>
       <c r="Y38" s="20">
-        <v>1</v>
+        <v>2.0744599999999998E-2</v>
       </c>
       <c r="Z38" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.0551239999999998E-2</v>
       </c>
       <c r="AA38" s="10">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>1.3519912214684566</v>
       </c>
     </row>
   </sheetData>

--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DAABAD-E1CE-4ABD-87EF-76A877ECE522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291DF38-486C-45C1-BB83-74F904A91485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1379,22 +1379,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.6120199999999996E-3</c:v>
+                  <c:v>3.73282E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0980200000000009E-3</c:v>
+                  <c:v>7.9345600000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.402276E-2</c:v>
+                  <c:v>1.4014560000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3612520000000001E-2</c:v>
+                  <c:v>2.5084059999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4594400000000004E-2</c:v>
+                  <c:v>3.6373019999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.668916E-2</c:v>
+                  <c:v>4.7824020000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,22 +2210,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.6120199999999996E-3</c:v>
+                  <c:v>3.73282E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0980200000000009E-3</c:v>
+                  <c:v>7.9345600000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.402276E-2</c:v>
+                  <c:v>1.4014560000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3612520000000001E-2</c:v>
+                  <c:v>2.5084059999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4594400000000004E-2</c:v>
+                  <c:v>3.6373019999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.668916E-2</c:v>
+                  <c:v>4.7824020000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,22 +3578,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.3991399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.2692799999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4.6499799999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>6.4812399999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0060419999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.2501020000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6647,8 +6647,8 @@
   </sheetPr>
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8902,67 +8902,67 @@
         <v>22</v>
       </c>
       <c r="G27" s="22">
-        <v>3.7487000000000002E-3</v>
+        <v>4.0302000000000003E-3</v>
       </c>
       <c r="H27" s="23">
-        <v>3.5155999999999998E-3</v>
+        <v>3.6359999999999999E-3</v>
       </c>
       <c r="I27" s="22">
-        <v>3.5436999999999999E-3</v>
+        <v>3.7257000000000002E-3</v>
       </c>
       <c r="J27" s="23">
-        <v>3.6386000000000001E-3</v>
+        <v>3.6484E-3</v>
       </c>
       <c r="K27" s="22">
-        <v>3.6135E-3</v>
+        <v>3.6237999999999999E-3</v>
       </c>
       <c r="L27" s="24">
         <f t="shared" si="0"/>
-        <v>3.6120199999999996E-3</v>
+        <v>3.73282E-3</v>
       </c>
       <c r="M27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="N27" s="23">
-        <v>1</v>
+        <v>1.9949E-3</v>
       </c>
       <c r="O27" s="22">
-        <v>1</v>
+        <v>1.7110999999999999E-3</v>
       </c>
       <c r="P27" s="23">
-        <v>1</v>
+        <v>1.1724999999999999E-3</v>
       </c>
       <c r="Q27" s="22">
-        <v>1</v>
+        <v>1.1182E-3</v>
       </c>
       <c r="R27" s="23">
-        <v>1</v>
+        <v>9.990000000000001E-4</v>
       </c>
       <c r="S27" s="24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.3991399999999999E-3</v>
       </c>
       <c r="T27" s="27" t="s">
         <v>22</v>
       </c>
       <c r="U27" s="23">
-        <v>1</v>
+        <v>2.5430000000000001E-3</v>
       </c>
       <c r="V27" s="23">
-        <v>1</v>
+        <v>1.9975000000000001E-3</v>
       </c>
       <c r="W27" s="23">
-        <v>1</v>
+        <v>2.0187E-3</v>
       </c>
       <c r="X27" s="23">
-        <v>1</v>
+        <v>1.9589999999999998E-3</v>
       </c>
       <c r="Y27" s="23">
-        <v>1</v>
+        <v>2.1056999999999998E-3</v>
       </c>
       <c r="Z27" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.1247800000000002E-3</v>
       </c>
       <c r="AA27" s="27" t="s">
         <v>22</v>
@@ -8987,73 +8987,73 @@
         <v>2</v>
       </c>
       <c r="G28" s="7">
-        <v>7.7337999999999999E-3</v>
+        <v>9.1038999999999998E-3</v>
       </c>
       <c r="H28" s="9">
-        <v>8.4965000000000006E-3</v>
+        <v>7.3057E-3</v>
       </c>
       <c r="I28" s="7">
-        <v>8.1335000000000001E-3</v>
+        <v>7.5629E-3</v>
       </c>
       <c r="J28" s="9">
-        <v>8.4562999999999999E-3</v>
+        <v>7.4771000000000004E-3</v>
       </c>
       <c r="K28" s="7">
-        <v>7.6699999999999997E-3</v>
+        <v>8.2232E-3</v>
       </c>
       <c r="L28" s="17">
         <f t="shared" si="0"/>
-        <v>8.0980200000000009E-3</v>
+        <v>7.9345600000000002E-3</v>
       </c>
       <c r="M28" s="13">
         <f>L28/L27</f>
-        <v>2.2419643302085817</v>
+        <v>2.1256208442946618</v>
       </c>
       <c r="N28" s="13">
-        <v>1</v>
+        <v>2.2640999999999998E-3</v>
       </c>
       <c r="O28" s="12">
-        <v>1</v>
+        <v>2.4149000000000002E-3</v>
       </c>
       <c r="P28" s="13">
-        <v>1</v>
+        <v>2.2594999999999998E-3</v>
       </c>
       <c r="Q28" s="12">
-        <v>1</v>
+        <v>2.1616999999999999E-3</v>
       </c>
       <c r="R28" s="13">
-        <v>1</v>
+        <v>2.2461999999999998E-3</v>
       </c>
       <c r="S28" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.2692799999999998E-3</v>
       </c>
       <c r="T28" s="13">
         <f>S28/S27</f>
-        <v>1</v>
+        <v>1.6219106022270824</v>
       </c>
       <c r="U28" s="13">
-        <v>1</v>
+        <v>4.313E-3</v>
       </c>
       <c r="V28" s="13">
-        <v>1</v>
+        <v>4.2884999999999998E-3</v>
       </c>
       <c r="W28" s="13">
-        <v>1</v>
+        <v>4.0705999999999997E-3</v>
       </c>
       <c r="X28" s="13">
-        <v>1</v>
+        <v>4.0130000000000001E-3</v>
       </c>
       <c r="Y28" s="13">
-        <v>1</v>
+        <v>4.1974999999999998E-3</v>
       </c>
       <c r="Z28" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.1765199999999995E-3</v>
       </c>
       <c r="AA28" s="13">
         <f>Z28/Z27</f>
-        <v>1</v>
+        <v>1.9656246764370895</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
@@ -9075,73 +9075,73 @@
         <v>1.4128711136008072</v>
       </c>
       <c r="G29" s="7">
-        <v>1.38031E-2</v>
+        <v>1.41674E-2</v>
       </c>
       <c r="H29" s="9">
-        <v>1.4324399999999999E-2</v>
+        <v>1.4419299999999999E-2</v>
       </c>
       <c r="I29" s="7">
-        <v>1.3864700000000001E-2</v>
+        <v>1.41292E-2</v>
       </c>
       <c r="J29" s="9">
-        <v>1.4205199999999999E-2</v>
+        <v>1.3562299999999999E-2</v>
       </c>
       <c r="K29" s="7">
-        <v>1.3916400000000001E-2</v>
+        <v>1.3794600000000001E-2</v>
       </c>
       <c r="L29" s="17">
         <f t="shared" si="0"/>
-        <v>1.402276E-2</v>
+        <v>1.4014560000000001E-2</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" ref="M29:M32" si="23">L29/L28</f>
-        <v>1.7316282251710911</v>
+        <v>1.7662680728357969</v>
       </c>
       <c r="N29" s="13">
-        <v>1</v>
+        <v>4.3211999999999999E-3</v>
       </c>
       <c r="O29" s="12">
-        <v>1</v>
+        <v>6.2481000000000004E-3</v>
       </c>
       <c r="P29" s="13">
-        <v>1</v>
+        <v>4.0547999999999999E-3</v>
       </c>
       <c r="Q29" s="12">
-        <v>1</v>
+        <v>4.5886E-3</v>
       </c>
       <c r="R29" s="13">
-        <v>1</v>
+        <v>4.0372000000000003E-3</v>
       </c>
       <c r="S29" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4.6499799999999997E-3</v>
       </c>
       <c r="T29" s="13">
         <f t="shared" ref="T29:T32" si="24">S29/S28</f>
-        <v>1</v>
+        <v>2.049099273778467</v>
       </c>
       <c r="U29" s="13">
-        <v>1</v>
+        <v>7.5751000000000004E-3</v>
       </c>
       <c r="V29" s="13">
-        <v>1</v>
+        <v>9.2452000000000003E-3</v>
       </c>
       <c r="W29" s="13">
-        <v>1</v>
+        <v>7.7866000000000003E-3</v>
       </c>
       <c r="X29" s="13">
-        <v>1</v>
+        <v>7.1488000000000003E-3</v>
       </c>
       <c r="Y29" s="13">
-        <v>1</v>
+        <v>7.8995000000000003E-3</v>
       </c>
       <c r="Z29" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.9310400000000003E-3</v>
       </c>
       <c r="AA29" s="13">
         <f t="shared" ref="AA29:AA32" si="25">Z29/Z28</f>
-        <v>1</v>
+        <v>1.8989589418942088</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
@@ -9163,73 +9163,73 @@
         <v>1.3330415634232318</v>
       </c>
       <c r="G30" s="7">
-        <v>2.3740399999999998E-2</v>
+        <v>2.50371E-2</v>
       </c>
       <c r="H30" s="9">
-        <v>2.3674400000000002E-2</v>
+        <v>2.5150200000000001E-2</v>
       </c>
       <c r="I30" s="7">
-        <v>2.4466000000000002E-2</v>
+        <v>2.5241699999999999E-2</v>
       </c>
       <c r="J30" s="9">
-        <v>2.2818100000000001E-2</v>
+        <v>2.4894599999999999E-2</v>
       </c>
       <c r="K30" s="7">
-        <v>2.3363700000000001E-2</v>
+        <v>2.50967E-2</v>
       </c>
       <c r="L30" s="17">
         <f t="shared" si="0"/>
-        <v>2.3612520000000001E-2</v>
+        <v>2.5084059999999998E-2</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="23"/>
-        <v>1.6838710781615032</v>
+        <v>1.7898571200237465</v>
       </c>
       <c r="N30" s="13">
-        <v>1</v>
+        <v>6.9208000000000004E-3</v>
       </c>
       <c r="O30" s="12">
-        <v>1</v>
+        <v>6.1244999999999997E-3</v>
       </c>
       <c r="P30" s="13">
-        <v>1</v>
+        <v>6.2744000000000003E-3</v>
       </c>
       <c r="Q30" s="12">
-        <v>1</v>
+        <v>6.5335999999999997E-3</v>
       </c>
       <c r="R30" s="13">
-        <v>1</v>
+        <v>6.5529000000000004E-3</v>
       </c>
       <c r="S30" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6.4812399999999992E-3</v>
       </c>
       <c r="T30" s="13">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.3938210486926825</v>
       </c>
       <c r="U30" s="13">
-        <v>1</v>
+        <v>1.36528E-2</v>
       </c>
       <c r="V30" s="13">
-        <v>1</v>
+        <v>1.41469E-2</v>
       </c>
       <c r="W30" s="13">
-        <v>1</v>
+        <v>1.3438E-2</v>
       </c>
       <c r="X30" s="13">
-        <v>1</v>
+        <v>1.37591E-2</v>
       </c>
       <c r="Y30" s="13">
-        <v>1</v>
+        <v>1.35464E-2</v>
       </c>
       <c r="Z30" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.3708639999999999E-2</v>
       </c>
       <c r="AA30" s="13">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>1.7284794932316567</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -9251,73 +9251,73 @@
         <v>0.71187548241634313</v>
       </c>
       <c r="G31" s="7">
-        <v>3.4146200000000002E-2</v>
+        <v>3.6630900000000001E-2</v>
       </c>
       <c r="H31" s="9">
-        <v>3.5056499999999997E-2</v>
+        <v>3.6930200000000003E-2</v>
       </c>
       <c r="I31" s="7">
-        <v>3.4130000000000001E-2</v>
+        <v>3.6297099999999999E-2</v>
       </c>
       <c r="J31" s="9">
-        <v>3.4595800000000003E-2</v>
+        <v>3.5845299999999997E-2</v>
       </c>
       <c r="K31" s="7">
-        <v>3.5043499999999998E-2</v>
+        <v>3.6161600000000002E-2</v>
       </c>
       <c r="L31" s="17">
         <f t="shared" si="0"/>
-        <v>3.4594400000000004E-2</v>
+        <v>3.6373019999999999E-2</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="23"/>
-        <v>1.4650871656223055</v>
+        <v>1.4500451681266908</v>
       </c>
       <c r="N31" s="13">
-        <v>1</v>
+        <v>1.03827E-2</v>
       </c>
       <c r="O31" s="12">
-        <v>1</v>
+        <v>9.5872000000000006E-3</v>
       </c>
       <c r="P31" s="13">
-        <v>1</v>
+        <v>1.03465E-2</v>
       </c>
       <c r="Q31" s="12">
-        <v>1</v>
+        <v>1.0363199999999999E-2</v>
       </c>
       <c r="R31" s="13">
-        <v>1</v>
+        <v>9.6225000000000008E-3</v>
       </c>
       <c r="S31" s="17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0060419999999999E-2</v>
       </c>
       <c r="T31" s="13">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.5522369176268738</v>
       </c>
       <c r="U31" s="13">
-        <v>1</v>
+        <v>1.97342E-2</v>
       </c>
       <c r="V31" s="13">
-        <v>1</v>
+        <v>2.03944E-2</v>
       </c>
       <c r="W31" s="13">
-        <v>1</v>
+        <v>1.9473299999999999E-2</v>
       </c>
       <c r="X31" s="13">
-        <v>1</v>
+        <v>1.99802E-2</v>
       </c>
       <c r="Y31" s="13">
-        <v>1</v>
+        <v>1.9841500000000001E-2</v>
       </c>
       <c r="Z31" s="17">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.9884720000000002E-2</v>
       </c>
       <c r="AA31" s="13">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>1.4505246326404371</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9339,73 +9339,73 @@
         <v>0.48137135897135735</v>
       </c>
       <c r="G32" s="8">
-        <v>4.65058E-2</v>
+        <v>4.8419499999999997E-2</v>
       </c>
       <c r="H32" s="10">
-        <v>4.7202500000000001E-2</v>
+        <v>4.9242300000000003E-2</v>
       </c>
       <c r="I32" s="8">
-        <v>4.7164200000000003E-2</v>
+        <v>4.7020300000000001E-2</v>
       </c>
       <c r="J32" s="10">
-        <v>4.6403E-2</v>
+        <v>4.6913000000000003E-2</v>
       </c>
       <c r="K32" s="8">
-        <v>4.6170299999999997E-2</v>
+        <v>4.7524999999999998E-2</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="0"/>
-        <v>4.668916E-2</v>
+        <v>4.7824020000000002E-2</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="23"/>
-        <v>1.3496161228406909</v>
+        <v>1.3148212603737606</v>
       </c>
       <c r="N32" s="20">
-        <v>1</v>
+        <v>1.20441E-2</v>
       </c>
       <c r="O32" s="19">
-        <v>1</v>
+        <v>1.3041799999999999E-2</v>
       </c>
       <c r="P32" s="20">
-        <v>1</v>
+        <v>1.2166099999999999E-2</v>
       </c>
       <c r="Q32" s="19">
-        <v>1</v>
+        <v>1.2560699999999999E-2</v>
       </c>
       <c r="R32" s="20">
-        <v>1</v>
+        <v>1.26924E-2</v>
       </c>
       <c r="S32" s="18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2501020000000002E-2</v>
       </c>
       <c r="T32" s="13">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.2425942455682768</v>
       </c>
       <c r="U32" s="20">
-        <v>1</v>
+        <v>2.56008E-2</v>
       </c>
       <c r="V32" s="20">
-        <v>1</v>
+        <v>2.88618E-2</v>
       </c>
       <c r="W32" s="20">
-        <v>1</v>
+        <v>2.5558999999999998E-2</v>
       </c>
       <c r="X32" s="20">
-        <v>1</v>
+        <v>2.6895100000000002E-2</v>
       </c>
       <c r="Y32" s="20">
-        <v>1</v>
+        <v>2.73493E-2</v>
       </c>
       <c r="Z32" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.6853200000000001E-2</v>
       </c>
       <c r="AA32" s="13">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>1.350443958979558</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.35">

--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291DF38-486C-45C1-BB83-74F904A91485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5652E32-D9EC-4255-BE3A-D43DD5613352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6647,7 +6647,7 @@
   </sheetPr>
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>

--- a/executionTimeData.xlsx
+++ b/executionTimeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kharp\Desktop\School\2024\S2024\CSCI2226-DatastructuresAndAlgorithms\SortingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5652E32-D9EC-4255-BE3A-D43DD5613352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B6A5E2-CCF1-469D-BFF8-45FA74E27611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6647,8 +6647,8 @@
   </sheetPr>
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
